--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\128k_v1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55876BC0-A5C7-4699-8985-7019887A4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3EE152-7AA5-4766-97FD-2CF8DF06A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="1515" windowWidth="25515" windowHeight="13140" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>模型名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,6 +197,16 @@
   <si>
     <t>gemini-1.5-flash</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command-r</t>
+  </si>
+  <si>
+    <t>command-r-plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reka-flash</t>
   </si>
 </sst>
 </file>
@@ -204,8 +214,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -309,20 +319,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,18 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F31D32-139F-4AD6-897B-A551476427E9}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="10" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="6" max="6" width="6.375" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
@@ -677,13 +687,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -763,15 +773,15 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <f>(E2+H2)/2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f t="shared" ref="C2:D2" si="0">(F2+I2)/2</f>
         <v>8.7189046939214023</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f t="shared" si="0"/>
         <v>41.361865819980189</v>
       </c>
@@ -858,15 +868,15 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <f>(E3+H3)/2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f t="shared" ref="C3" si="3">(F3+I3)/2</f>
         <v>10.637795090675304</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f t="shared" ref="D3" si="4">(G3+J3)/2</f>
         <v>31.203989712980132</v>
       </c>
@@ -953,15 +963,15 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f>(E4+H4)/2</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f t="shared" ref="C4" si="9">(F4+I4)/2</f>
         <v>7.9832787414391779</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f t="shared" ref="D4" si="10">(G4+J4)/2</f>
         <v>32.133662708958447</v>
       </c>
@@ -1048,15 +1058,15 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f>(E5+H5)/2</f>
         <v>0.76666666666666661</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f t="shared" ref="C5" si="15">(F5+I5)/2</f>
         <v>11.586891760428701</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f t="shared" ref="D5" si="16">(G5+J5)/2</f>
         <v>227.57970614669682</v>
       </c>
@@ -1143,20 +1153,20 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9">
-        <f t="shared" ref="B6:B15" si="21">(E6+H6)/2</f>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B14" si="21">(E6+H6)/2</f>
         <v>0.93333333333333324</v>
       </c>
-      <c r="C6" s="11">
-        <f t="shared" ref="C6:C15" si="22">(F6+I6)/2</f>
+      <c r="C6" s="10">
+        <f t="shared" ref="C6:C14" si="22">(F6+I6)/2</f>
         <v>41.793300837278338</v>
       </c>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6:D15" si="23">(G6+J6)/2</f>
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:D11" si="23">(G6+J6)/2</f>
         <v>95.378264186210743</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="24">(K6+N6+Q6)/3</f>
+        <f t="shared" ref="E6:E16" si="24">(K6+N6+Q6)/3</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="F6">
@@ -1168,7 +1178,7 @@
         <v>96.950747480409532</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H15" si="27">(T6+W6+Z6)/3</f>
+        <f t="shared" ref="H6:H16" si="27">(T6+W6+Z6)/3</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="I6">
@@ -1238,15 +1248,15 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f t="shared" si="21"/>
         <v>0.73333333333333339</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f t="shared" si="22"/>
         <v>48.782946119705784</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="23"/>
         <v>20.182842715105238</v>
       </c>
@@ -1333,15 +1343,15 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f t="shared" si="21"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f t="shared" si="22"/>
         <v>111.78493799765857</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="23"/>
         <v>11.456370074088882</v>
       </c>
@@ -1428,15 +1438,15 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f t="shared" si="21"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f t="shared" si="22"/>
         <v>20.401956319808917</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="23"/>
         <v>39.803360358325811</v>
       </c>
@@ -1523,15 +1533,15 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f t="shared" si="21"/>
         <v>0.83333333333333348</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f t="shared" si="22"/>
         <v>35.309841950734437</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f t="shared" si="23"/>
         <v>32.472148444375534</v>
       </c>
@@ -1618,15 +1628,15 @@
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f t="shared" si="21"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f t="shared" si="22"/>
         <v>30.322414388259219</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="23"/>
         <v>21.451202448441617</v>
       </c>
@@ -1713,15 +1723,15 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <f t="shared" ref="B12:D13" si="30">E12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" si="30"/>
         <v>74.449439326922047</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" si="30"/>
         <v>16.672483669830633</v>
       </c>
@@ -1737,11 +1747,11 @@
         <f t="shared" si="26"/>
         <v>16.672483669830633</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12">
         <v>1</v>
       </c>
@@ -1774,15 +1784,15 @@
       <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f t="shared" si="30"/>
         <v>46.801008224487269</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="30"/>
         <v>16.444276618167933</v>
       </c>
@@ -1798,11 +1808,11 @@
         <f t="shared" ref="G13" si="33">(M13+P13+S13)/3</f>
         <v>16.444276618167933</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1835,11 +1845,11 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f t="shared" si="21"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f t="shared" si="22"/>
         <v>25.485657801230715</v>
       </c>
@@ -1900,16 +1910,16 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <f t="shared" si="22"/>
+      <c r="B15" s="8">
+        <f t="shared" ref="B15:D16" si="34">(E15+H15)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="34"/>
         <v>18.7829784850279</v>
       </c>
-      <c r="D15" s="11">
-        <f t="shared" si="23"/>
+      <c r="D15" s="10">
+        <f t="shared" si="34"/>
         <v>34.728402454384664</v>
       </c>
       <c r="E15">
@@ -1989,6 +1999,125 @@
       </c>
       <c r="AB15">
         <v>30.617302132093499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="34"/>
+        <v>0.13333333333333336</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="24"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="27"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.4</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2</v>
+      </c>
+      <c r="T16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8">
+        <f>(K17+N17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <f>(F17+I17)/2</f>
+        <v>10.545337865749932</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="35">(K17+N17+Q17)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="36">(L17+O17+R17)/3</f>
+        <v>10.693376362323699</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17" si="37">(T17+W17+Z17)/3</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17" si="38">(U17+X17+AA17)/3</f>
+        <v>10.397299369176165</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>10.9786985516548</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10.6470544934272</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>10.4543760418891</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>10.329829633235899</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>10.508526802062899</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>10.353541672229699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8">
+        <f>(K18+N18)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <f>L18</f>
+        <v>23.0938816070556</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>23.0938816070556</v>
       </c>
     </row>
   </sheetData>

--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\128k_v1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3EE152-7AA5-4766-97FD-2CF8DF06A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A18D3A-51E7-4F03-897D-4788B230E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="30780" yWindow="0" windowWidth="25515" windowHeight="15480" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>模型名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>reka-flash</t>
+  </si>
+  <si>
+    <t>deepseek-v2 (siliconflow)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubao-lite-128k</t>
+  </si>
+  <si>
+    <t>doubao-pro-128k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128K 榜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -649,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F31D32-139F-4AD6-897B-A551476427E9}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2036,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2116,7 @@
         <v>10.353541672229699</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2118,6 +2133,236 @@
       </c>
       <c r="L18">
         <v>23.0938816070556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" ref="B19:B20" si="39">(E19+H19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E20" si="40">(K19+N19+Q19)/3</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="41">(T19+W19+Z19)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="39"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20" si="42">(F20+I20)/2</f>
+        <v>5.019069343805306</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" ref="D20" si="43">(G20+J20)/2</f>
+        <v>30.835901143424049</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="44">(L20+O20+R20)/3</f>
+        <v>4.9473839600880867</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="45">(M20+P20+S20)/3</f>
+        <v>29.132505753867832</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="41"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="46">(U20+X20+AA20)/3</f>
+        <v>5.0907547275225262</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="47">(V20+Y20+AB20)/3</f>
+        <v>32.539296532980266</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>4.9815639853477398</v>
+      </c>
+      <c r="M20">
+        <v>25.0166521710083</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4.9420642256736702</v>
+      </c>
+      <c r="P20">
+        <v>34.117869527363503</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>4.91852366924285</v>
+      </c>
+      <c r="S20">
+        <v>28.262995563231701</v>
+      </c>
+      <c r="T20">
+        <v>0.2</v>
+      </c>
+      <c r="U20">
+        <v>5.1121951937675396</v>
+      </c>
+      <c r="V20">
+        <v>31.455094595908299</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>5.0425979495048496</v>
+      </c>
+      <c r="Y20">
+        <v>37.0520252821428</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>5.1174710392951903</v>
+      </c>
+      <c r="AB20">
+        <v>29.110769720889699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" ref="B21" si="48">(E21+H21)/2</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" ref="C21" si="49">(F21+I21)/2</f>
+        <v>15.909321894248267</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" ref="D21" si="50">(G21+J21)/2</f>
+        <v>22.25878458749262</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="51">(K21+N21+Q21)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="52">(L21+O21+R21)/3</f>
+        <v>15.684417903423267</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="53">(M21+P21+S21)/3</f>
+        <v>22.732833999035435</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21" si="54">(T21+W21+Z21)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="55">(U21+X21+AA21)/3</f>
+        <v>16.134225885073267</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="56">(V21+Y21+AB21)/3</f>
+        <v>21.784735175949802</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>15.596988320350601</v>
+      </c>
+      <c r="M21">
+        <v>23.655920785605101</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>15.712495863437599</v>
+      </c>
+      <c r="P21">
+        <v>23.7034889725462</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>15.7437695264816</v>
+      </c>
+      <c r="S21">
+        <v>20.839092238955001</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>16.052135288715299</v>
+      </c>
+      <c r="V21">
+        <v>22.248337776166501</v>
+      </c>
+      <c r="W21">
+        <v>0.8</v>
+      </c>
+      <c r="X21">
+        <v>16.016916513442901</v>
+      </c>
+      <c r="Y21">
+        <v>21.514771036600202</v>
+      </c>
+      <c r="Z21">
+        <v>0.8</v>
+      </c>
+      <c r="AA21">
+        <v>16.333625853061601</v>
+      </c>
+      <c r="AB21">
+        <v>21.591096715082699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2126,8 +2371,8 @@
     <mergeCell ref="H13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D12 D14:D1048576">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="D1:D12 D14:D19 D22:D1048576">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2138,8 +2383,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C12 C14:C1048576">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="C1:C12 C14:C19 C22:C1048576">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2150,8 +2395,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B12 B14:B1048576">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B1:B12 B14:B19 B22:B1048576">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2163,6 +2408,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C19 C22:C1048576">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D19 D22:D1048576">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B19 B22:B1048576">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2174,7 +2515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C20:C21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2186,7 +2527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="D20:D21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2198,8 +2539,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2211,26 +2564,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\128k_v1_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A18D3A-51E7-4F03-897D-4788B230E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8EEDAF-9CB9-48A3-8C7F-D2420F628CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="0" windowWidth="25515" windowHeight="15480" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="30390" yWindow="0" windowWidth="25515" windowHeight="15480" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>模型名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>128K 榜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunyuan-standard-256K</t>
+  </si>
+  <si>
+    <t>hunyuan-lite</t>
+  </si>
+  <si>
+    <t>step-1-128k (6.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glm-4-flash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glm-4-air</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +312,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F31D32-139F-4AD6-897B-A551476427E9}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1208,7 @@
         <v>95.378264186210743</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E16" si="24">(K6+N6+Q6)/3</f>
+        <f t="shared" ref="E6:E15" si="24">(K6+N6+Q6)/3</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="F6">
@@ -1193,7 +1220,7 @@
         <v>96.950747480409532</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H16" si="27">(T6+W6+Z6)/3</f>
+        <f t="shared" ref="H6:H15" si="27">(T6+W6+Z6)/3</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="I6">
@@ -2017,38 +2044,98 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="34"/>
-        <v>0.13333333333333336</v>
+        <f t="shared" ref="B16" si="35">(E16+H16)/2</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" ref="C16" si="36">(F16+I16)/2</f>
+        <v>17.436386535565035</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16" si="37">(G16+J16)/2</f>
+        <v>6.385949832924867</v>
       </c>
       <c r="E16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="E16" si="38">(K16+N16+Q16)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="39">(L16+O16+R16)/3</f>
+        <v>17.067543089389769</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="40">(M16+P16+S16)/3</f>
+        <v>6.1793913580493403</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="41">(T16+W16+Z16)/3</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="27"/>
-        <v>6.6666666666666666E-2</v>
+      <c r="I16">
+        <f t="shared" ref="I16" si="42">(U16+X16+AA16)/3</f>
+        <v>17.8052299817403</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="43">(V16+Y16+AB16)/3</f>
+        <v>6.5925083078003937</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>17.145863652229298</v>
+      </c>
+      <c r="M16">
+        <v>6.3362250989350901</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>17.140545785427001</v>
+      </c>
+      <c r="P16">
+        <v>6.0266217079915503</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>16.916219830513</v>
+      </c>
+      <c r="S16">
+        <v>6.1753272672213804</v>
+      </c>
+      <c r="T16">
         <v>0.4</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="U16">
+        <v>17.902980864048001</v>
+      </c>
+      <c r="V16">
+        <v>6.5199081895270101</v>
+      </c>
+      <c r="W16">
         <v>0.2</v>
       </c>
-      <c r="T16">
-        <v>0.2</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
+      <c r="X16">
+        <v>17.728280305862398</v>
+      </c>
+      <c r="Y16">
+        <v>6.3420418463271799</v>
       </c>
       <c r="Z16">
         <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>17.784428775310499</v>
+      </c>
+      <c r="AB16">
+        <v>6.91557488754699</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
@@ -2064,19 +2151,19 @@
         <v>10.545337865749932</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="35">(K17+N17+Q17)/3</f>
+        <f t="shared" ref="E17" si="44">(K17+N17+Q17)/3</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="36">(L17+O17+R17)/3</f>
+        <f t="shared" ref="F17" si="45">(L17+O17+R17)/3</f>
         <v>10.693376362323699</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="37">(T17+W17+Z17)/3</f>
+        <f t="shared" ref="H17" si="46">(T17+W17+Z17)/3</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" si="38">(U17+X17+AA17)/3</f>
+        <f t="shared" ref="I17" si="47">(U17+X17+AA17)/3</f>
         <v>10.397299369176165</v>
       </c>
       <c r="K17">
@@ -2136,38 +2223,98 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" ref="B19:B20" si="39">(E19+H19)/2</f>
-        <v>0</v>
+        <f t="shared" ref="B19" si="48">(E19+H19)/2</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19" si="49">(F19+I19)/2</f>
+        <v>76.005207777023287</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" ref="D19" si="50">(G19+J19)/2</f>
+        <v>45.056581913135403</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E20" si="40">(K19+N19+Q19)/3</f>
-        <v>0</v>
+        <f t="shared" ref="E19" si="51">(K19+N19+Q19)/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="52">(L19+O19+R19)/3</f>
+        <v>77.130202849705981</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19" si="53">(M19+P19+S19)/3</f>
+        <v>45.07732749045914</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H20" si="41">(T19+W19+Z19)/3</f>
-        <v>0</v>
+        <f t="shared" ref="H19" si="54">(T19+W19+Z19)/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19" si="55">(U19+X19+AA19)/3</f>
+        <v>74.880212704340593</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19" si="56">(V19+Y19+AB19)/3</f>
+        <v>45.035836335811666</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="L19">
+        <v>79.856281280517507</v>
+      </c>
+      <c r="M19">
+        <v>44.7471429887173</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="O19">
+        <v>74.917352199554401</v>
+      </c>
+      <c r="P19">
+        <v>45.040830726209698</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
+      <c r="R19">
+        <v>76.616975069046006</v>
+      </c>
+      <c r="S19">
+        <v>45.444008756450401</v>
+      </c>
       <c r="T19">
         <v>0</v>
       </c>
+      <c r="U19">
+        <v>71.489932060241699</v>
+      </c>
+      <c r="V19">
+        <v>43.856857747899603</v>
+      </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="X19">
+        <v>75.299768924713106</v>
+      </c>
+      <c r="Y19">
+        <v>45.857705588388797</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="AA19">
+        <v>77.850937128067002</v>
+      </c>
+      <c r="AB19">
+        <v>45.392945671146599</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
@@ -2175,39 +2322,39 @@
         <v>47</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="B20" si="57">(E20+H20)/2</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" ref="C20" si="42">(F20+I20)/2</f>
+        <f t="shared" ref="C20" si="58">(F20+I20)/2</f>
         <v>5.019069343805306</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20" si="43">(G20+J20)/2</f>
+        <f t="shared" ref="D20" si="59">(G20+J20)/2</f>
         <v>30.835901143424049</v>
       </c>
       <c r="E20">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="E20" si="60">(K20+N20+Q20)/3</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="44">(L20+O20+R20)/3</f>
+        <f t="shared" ref="F20" si="61">(L20+O20+R20)/3</f>
         <v>4.9473839600880867</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20" si="45">(M20+P20+S20)/3</f>
+        <f t="shared" ref="G20" si="62">(M20+P20+S20)/3</f>
         <v>29.132505753867832</v>
       </c>
       <c r="H20">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H20" si="63">(T20+W20+Z20)/3</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="46">(U20+X20+AA20)/3</f>
+        <f t="shared" ref="I20" si="64">(U20+X20+AA20)/3</f>
         <v>5.0907547275225262</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="47">(V20+Y20+AB20)/3</f>
+        <f t="shared" ref="J20" si="65">(V20+Y20+AB20)/3</f>
         <v>32.539296532980266</v>
       </c>
       <c r="K20">
@@ -2270,39 +2417,39 @@
         <v>48</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" ref="B21" si="48">(E21+H21)/2</f>
+        <f t="shared" ref="B21" si="66">(E21+H21)/2</f>
         <v>0.93333333333333335</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" ref="C21" si="49">(F21+I21)/2</f>
+        <f t="shared" ref="C21" si="67">(F21+I21)/2</f>
         <v>15.909321894248267</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21" si="50">(G21+J21)/2</f>
+        <f t="shared" ref="D21" si="68">(G21+J21)/2</f>
         <v>22.25878458749262</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="51">(K21+N21+Q21)/3</f>
+        <f t="shared" ref="E21" si="69">(K21+N21+Q21)/3</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="52">(L21+O21+R21)/3</f>
+        <f t="shared" ref="F21" si="70">(L21+O21+R21)/3</f>
         <v>15.684417903423267</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="53">(M21+P21+S21)/3</f>
+        <f t="shared" ref="G21" si="71">(M21+P21+S21)/3</f>
         <v>22.732833999035435</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="54">(T21+W21+Z21)/3</f>
+        <f t="shared" ref="H21" si="72">(T21+W21+Z21)/3</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="55">(U21+X21+AA21)/3</f>
+        <f t="shared" ref="I21" si="73">(U21+X21+AA21)/3</f>
         <v>16.134225885073267</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="56">(V21+Y21+AB21)/3</f>
+        <f t="shared" ref="J21" si="74">(V21+Y21+AB21)/3</f>
         <v>21.784735175949802</v>
       </c>
       <c r="K21">
@@ -2360,19 +2507,461 @@
         <v>21.591096715082699</v>
       </c>
     </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:B23" si="75">(E22+H22)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:C23" si="76">(F22+I22)/2</f>
+        <v>14.505219906568467</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:D23" si="77">(G22+J22)/2</f>
+        <v>18.091989977035485</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E23" si="78">(K22+N22+Q22)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F23" si="79">(L22+O22+R22)/3</f>
+        <v>12.863241195678667</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G23" si="80">(M22+P22+S22)/3</f>
+        <v>15.3951782672949</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H23" si="81">(T22+W22+Z22)/3</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I23" si="82">(U22+X22+AA22)/3</f>
+        <v>16.147198617458265</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J23" si="83">(V22+Y22+AB22)/3</f>
+        <v>20.788801686776068</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>12.5657751560211</v>
+      </c>
+      <c r="M22">
+        <v>15.3062028157262</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>12.6883382797241</v>
+      </c>
+      <c r="P22">
+        <v>14.5019327833588</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13.335610151290799</v>
+      </c>
+      <c r="S22">
+        <v>16.377399202799701</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>18.167833626270198</v>
+      </c>
+      <c r="V22">
+        <v>13.4087535110377</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>15.095551729202199</v>
+      </c>
+      <c r="Y22">
+        <v>19.889569502444999</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>15.1782104969024</v>
+      </c>
+      <c r="AB22">
+        <v>29.0680820468455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="75"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="76"/>
+        <v>17.880254308382618</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="77"/>
+        <v>24.535812248385518</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="78"/>
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="79"/>
+        <v>15.657827874024667</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="80"/>
+        <v>25.1258367466545</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="81"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="82"/>
+        <v>20.102680742740567</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="83"/>
+        <v>23.945787750116533</v>
+      </c>
+      <c r="K23">
+        <v>0.4</v>
+      </c>
+      <c r="L23">
+        <v>14.5751335024833</v>
+      </c>
+      <c r="M23">
+        <v>24.691726223210502</v>
+      </c>
+      <c r="N23">
+        <v>0.6</v>
+      </c>
+      <c r="O23">
+        <v>16.181987583637198</v>
+      </c>
+      <c r="P23">
+        <v>26.760092127325098</v>
+      </c>
+      <c r="Q23">
+        <v>0.8</v>
+      </c>
+      <c r="R23">
+        <v>16.2163625359535</v>
+      </c>
+      <c r="S23">
+        <v>23.925691889427899</v>
+      </c>
+      <c r="T23">
+        <v>0.2</v>
+      </c>
+      <c r="U23">
+        <v>21.108941495418499</v>
+      </c>
+      <c r="V23">
+        <v>23.585698291301</v>
+      </c>
+      <c r="W23">
+        <v>0.6</v>
+      </c>
+      <c r="X23">
+        <v>18.920448184013299</v>
+      </c>
+      <c r="Y23">
+        <v>22.7302591735343</v>
+      </c>
+      <c r="Z23">
+        <v>0.2</v>
+      </c>
+      <c r="AA23">
+        <v>20.2786525487899</v>
+      </c>
+      <c r="AB23">
+        <v>25.5214057855143</v>
+      </c>
+    </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24" si="84">E24</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24" si="85">F24</f>
+        <v>49.664993882179203</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24" si="86">G24</f>
+        <v>16.518642490803103</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E25" si="87">(K24+N24+Q24)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F25" si="88">(L24+O24+R24)/3</f>
+        <v>49.664993882179203</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G25" si="89">(M24+P24+S24)/3</f>
+        <v>16.518642490803103</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>47.988940834998999</v>
+      </c>
+      <c r="M24">
+        <v>16.550851050969101</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>48.320182800292898</v>
+      </c>
+      <c r="P24">
+        <v>16.5457539924553</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>52.685858011245699</v>
+      </c>
+      <c r="S24">
+        <v>16.459322428984901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" ref="B25" si="90">(E25+H25)/2</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25" si="91">(F25+I25)/2</f>
+        <v>24.231564074754665</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" ref="D25" si="92">(G25+J25)/2</f>
+        <v>50.44927547684587</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="88"/>
+        <v>23.754464189211465</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="89"/>
+        <v>51.179199134856241</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="93">(T25+W25+Z25)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="94">(U25+X25+AA25)/3</f>
+        <v>24.708663960297869</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="95">(V25+Y25+AB25)/3</f>
+        <v>49.719351818835499</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>23.644140005111598</v>
+      </c>
+      <c r="M25">
+        <v>51.146316261328401</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>23.793016254901801</v>
+      </c>
+      <c r="P25">
+        <v>50.987767901798797</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>23.826236307620999</v>
+      </c>
+      <c r="S25">
+        <v>51.403513241441502</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>24.842924296855902</v>
+      </c>
+      <c r="V25">
+        <v>51.1592757024139</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>24.469088613986901</v>
+      </c>
+      <c r="Y25">
+        <v>50.498906863119601</v>
+      </c>
+      <c r="Z25">
+        <v>0.8</v>
+      </c>
+      <c r="AA25">
+        <v>24.813978970050801</v>
+      </c>
+      <c r="AB25">
+        <v>47.499872890973002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26" si="96">(E26+H26)/2</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26" si="97">(F26+I26)/2</f>
+        <v>28.253571649392399</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26" si="98">(G26+J26)/2</f>
+        <v>24.328894134402404</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="99">(K26+N26+Q26)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="100">(L26+O26+R26)/3</f>
+        <v>27.555681546529101</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="101">(M26+P26+S26)/3</f>
+        <v>24.429171104932035</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="102">(T26+W26+Z26)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="103">(U26+X26+AA26)/3</f>
+        <v>28.9514617522557</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="104">(V26+Y26+AB26)/3</f>
+        <v>24.228617163872769</v>
+      </c>
+      <c r="K26">
+        <v>0.8</v>
+      </c>
+      <c r="L26">
+        <v>27.953351855278001</v>
+      </c>
+      <c r="M26">
+        <v>24.995768119916399</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>26.2293851971626</v>
+      </c>
+      <c r="P26">
+        <v>23.631970382321999</v>
+      </c>
+      <c r="Q26">
+        <v>0.8</v>
+      </c>
+      <c r="R26">
+        <v>28.484307587146699</v>
+      </c>
+      <c r="S26">
+        <v>24.6597748125577</v>
+      </c>
+      <c r="T26">
+        <v>0.8</v>
+      </c>
+      <c r="U26">
+        <v>29.282195568084699</v>
+      </c>
+      <c r="V26">
+        <v>24.4957581751313</v>
+      </c>
+      <c r="W26">
+        <v>0.8</v>
+      </c>
+      <c r="X26">
+        <v>28.576601803302701</v>
+      </c>
+      <c r="Y26">
+        <v>24.409804179345301</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>28.995587885379699</v>
+      </c>
+      <c r="AB26">
+        <v>23.7802891371417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D12 D14:D19 D22:D1048576">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="D27:D1048576 D1:D12 D14:D18">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2383,8 +2972,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C12 C14:C19 C22:C1048576">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="C27:C1048576 C1:C12 C14:C18">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2395,8 +2984,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B12 B14:B19 B22:B1048576">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="B27:B1048576 B1:B12 B14:B18">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2408,6 +2997,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C1048576 C1:C18">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D1048576 D1:D18">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B1048576 B1:B18">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C23">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B23">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C23">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2419,8 +3128,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="B19:B23">
     <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C1048576 C1:C23">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2431,19 +3152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C19 C22:C1048576">
+  <conditionalFormatting sqref="D27:D1048576 D1:D23">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2455,7 +3164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D19 D22:D1048576">
+  <conditionalFormatting sqref="D24">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2467,8 +3176,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B19 B22:B1048576">
+  <conditionalFormatting sqref="C24">
     <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2479,7 +3200,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2491,7 +3272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2503,7 +3284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
+  <conditionalFormatting sqref="B25:B26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2515,7 +3296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2527,7 +3308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="D25:D26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2539,7 +3320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
+  <conditionalFormatting sqref="B25:B26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2551,7 +3332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C25:C26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2563,7 +3344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D25:D26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8EEDAF-9CB9-48A3-8C7F-D2420F628CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4652A-4704-4864-8C30-18871C464FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="0" windowWidth="25515" windowHeight="15480" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="30165" yWindow="510" windowWidth="25515" windowHeight="15480" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -336,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,10 +376,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +703,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1789,11 +1798,11 @@
         <f t="shared" si="26"/>
         <v>16.672483669830633</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12">
         <v>1</v>
       </c>
@@ -1850,11 +1859,11 @@
         <f t="shared" ref="G13" si="33">(M13+P13+S13)/3</f>
         <v>16.444276618167933</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" ref="B15:D16" si="34">(E15+H15)/2</f>
+        <f t="shared" ref="B15:D15" si="34">(E15+H15)/2</f>
         <v>0</v>
       </c>
       <c r="C15" s="10">
@@ -2044,7 +2053,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="8">
@@ -2223,7 +2232,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="8">
@@ -2508,7 +2517,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="8">
@@ -2603,7 +2612,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8">
@@ -2698,7 +2707,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="8">
@@ -2725,11 +2734,11 @@
         <f t="shared" ref="G24:G25" si="89">(M24+P24+S24)/3</f>
         <v>16.518642490803103</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="K24">
         <v>1</v>
       </c>
@@ -2759,102 +2768,102 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" ref="B25" si="90">(E25+H25)/2</f>
-        <v>0.13333333333333333</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25" si="91">(F25+I25)/2</f>
-        <v>24.231564074754665</v>
+        <v>23.710527668396598</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" ref="D25" si="92">(G25+J25)/2</f>
-        <v>50.44927547684587</v>
+        <v>83.048045491060634</v>
       </c>
       <c r="E25">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F25">
         <f t="shared" si="88"/>
-        <v>23.754464189211465</v>
+        <v>23.3840361833572</v>
       </c>
       <c r="G25">
         <f t="shared" si="89"/>
-        <v>51.179199134856241</v>
+        <v>83.187636415438689</v>
       </c>
       <c r="H25">
         <f t="shared" ref="H25" si="93">(T25+W25+Z25)/3</f>
-        <v>0.26666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25" si="94">(U25+X25+AA25)/3</f>
-        <v>24.708663960297869</v>
+        <v>24.037019153435995</v>
       </c>
       <c r="J25">
         <f t="shared" ref="J25" si="95">(V25+Y25+AB25)/3</f>
-        <v>49.719351818835499</v>
+        <v>82.908454566682565</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L25">
-        <v>23.644140005111598</v>
+        <v>23.400462925434098</v>
       </c>
       <c r="M25">
-        <v>51.146316261328401</v>
+        <v>84.534328886317894</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>23.793016254901801</v>
+        <v>23.465559780597602</v>
       </c>
       <c r="P25">
-        <v>50.987767901798797</v>
+        <v>84.108858751587505</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>23.826236307620999</v>
+        <v>23.286085844039899</v>
       </c>
       <c r="S25">
-        <v>51.403513241441502</v>
+        <v>80.919721608410697</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U25">
-        <v>24.842924296855902</v>
+        <v>24.095977485179901</v>
       </c>
       <c r="V25">
-        <v>51.1592757024139</v>
+        <v>80.636437391806695</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>24.469088613986901</v>
+        <v>23.878830254077901</v>
       </c>
       <c r="Y25">
-        <v>50.498906863119601</v>
+        <v>84.579919944815202</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>24.813978970050801</v>
+        <v>24.136249721050199</v>
       </c>
       <c r="AB25">
-        <v>47.499872890973002</v>
+        <v>83.509006363425797</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="8">

--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4652A-4704-4864-8C30-18871C464FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B933181-385E-4362-9556-75C3FF59D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="510" windowWidth="25515" windowHeight="15480" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="30525" yWindow="555" windowWidth="25515" windowHeight="14625" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>模型名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,9 +151,6 @@
     <t>gemini-1.5-pro</t>
   </si>
   <si>
-    <t>gpt-4o</t>
-  </si>
-  <si>
     <t>claude-3-sonnet</t>
   </si>
   <si>
@@ -173,24 +170,12 @@
     <t>Baichuan3-Turbo-128k</t>
   </si>
   <si>
-    <t>被风控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>abab6.5s-chat</t>
   </si>
   <si>
     <t>ERNIE-Speed-128K</t>
   </si>
   <si>
-    <t>step-1-128k (*)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step-1-256k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>claude-3-haiku</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,20 +184,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>command-r</t>
-  </si>
-  <si>
-    <t>command-r-plus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>reka-flash</t>
   </si>
   <si>
-    <t>deepseek-v2 (siliconflow)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>doubao-lite-128k</t>
   </si>
   <si>
@@ -230,15 +204,42 @@
     <t>hunyuan-lite</t>
   </si>
   <si>
-    <t>step-1-128k (6.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>glm-4-flash</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>glm-4-air</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step-1-128k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepseek-chat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepseek-coder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpt-4o-2024-05-13</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini-2024-07-18 (op)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>claude-3-5-sonnet (op)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command-r (op)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command-r-plus (op)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +325,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -342,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,10 +392,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,15 +719,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F31D32-139F-4AD6-897B-A551476427E9}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="10" customWidth="1"/>
@@ -822,7 +841,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8">
         <f>(E2+H2)/2</f>
@@ -1012,7 +1031,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8">
         <f>(E4+H4)/2</f>
@@ -1106,1264 +1125,1378 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
+      <c r="A5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="8">
         <f>(E5+H5)/2</f>
-        <v>0.76666666666666661</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" ref="C5" si="15">(F5+I5)/2</f>
-        <v>11.586891760428701</v>
+        <v>3.6872941454251551</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ref="D5" si="16">(G5+J5)/2</f>
-        <v>227.57970614669682</v>
+        <v>52.914399002980161</v>
       </c>
       <c r="E5">
         <f>(K5+N5+Q5)/3</f>
-        <v>0.73333333333333339</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5" si="17">(L5+O5+R5)/3</f>
-        <v>11.445445497830667</v>
+        <v>3.6389665802319797</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5" si="18">(M5+P5+S5)/3</f>
-        <v>226.66449120852363</v>
+        <v>51.800413385747163</v>
       </c>
       <c r="H5">
         <f>(T5+W5+Z5)/3</f>
-        <v>0.79999999999999993</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5" si="19">(U5+X5+AA5)/3</f>
-        <v>11.728338023026735</v>
+        <v>3.73562171061833</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5" si="20">(V5+Y5+AB5)/3</f>
-        <v>228.49492108487001</v>
+        <v>54.02838462021316</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>11.4343040585517</v>
+        <v>4.0151860117912204</v>
       </c>
       <c r="M5">
-        <v>248.494678069504</v>
+        <v>49.615698411317197</v>
       </c>
       <c r="N5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.391687870025599</v>
+        <v>3.3837074637412998</v>
       </c>
       <c r="P5">
-        <v>204.621044462453</v>
+        <v>51.909391119869902</v>
       </c>
       <c r="Q5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>11.5103445649147</v>
+        <v>3.5180062651634199</v>
       </c>
       <c r="S5">
-        <v>226.87775109361399</v>
+        <v>53.876150626054397</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>11.8445917367935</v>
+        <v>3.7094197869300798</v>
       </c>
       <c r="V5">
-        <v>225.36427467032999</v>
+        <v>57.824380489666602</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>11.714887201786</v>
+        <v>3.6970686316490098</v>
       </c>
       <c r="Y5">
-        <v>230.92490626625499</v>
+        <v>52.477024023952197</v>
       </c>
       <c r="Z5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>11.625535130500699</v>
+        <v>3.8003767132759001</v>
       </c>
       <c r="AB5">
-        <v>229.195582318025</v>
+        <v>51.783749347020702</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B14" si="21">(E6+H6)/2</f>
-        <v>0.93333333333333324</v>
+        <f>(E6+H6)/2</f>
+        <v>0.76666666666666661</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:C14" si="22">(F6+I6)/2</f>
-        <v>41.793300837278338</v>
+        <f t="shared" ref="C6" si="21">(F6+I6)/2</f>
+        <v>11.586891760428701</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D11" si="23">(G6+J6)/2</f>
-        <v>95.378264186210743</v>
+        <f t="shared" ref="D6" si="22">(G6+J6)/2</f>
+        <v>227.57970614669682</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="24">(K6+N6+Q6)/3</f>
-        <v>0.93333333333333324</v>
+        <f>(K6+N6+Q6)/3</f>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F15" si="25">(L6+O6+R6)/3</f>
-        <v>40.723192811012233</v>
+        <f t="shared" ref="F6" si="23">(L6+O6+R6)/3</f>
+        <v>11.445445497830667</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G15" si="26">(M6+P6+S6)/3</f>
-        <v>96.950747480409532</v>
+        <f t="shared" ref="G6" si="24">(M6+P6+S6)/3</f>
+        <v>226.66449120852363</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H15" si="27">(T6+W6+Z6)/3</f>
-        <v>0.93333333333333324</v>
+        <f>(T6+W6+Z6)/3</f>
+        <v>0.79999999999999993</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I15" si="28">(U6+X6+AA6)/3</f>
-        <v>42.863408863544436</v>
+        <f t="shared" ref="I6" si="25">(U6+X6+AA6)/3</f>
+        <v>11.728338023026735</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J15" si="29">(V6+Y6+AB6)/3</f>
-        <v>93.805780892011967</v>
+        <f t="shared" ref="J6" si="26">(V6+Y6+AB6)/3</f>
+        <v>228.49492108487001</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>40.654364407062502</v>
+        <v>11.4343040585517</v>
       </c>
       <c r="M6">
-        <v>90.536743839299007</v>
+        <v>248.494678069504</v>
       </c>
       <c r="N6">
         <v>0.8</v>
       </c>
       <c r="O6">
-        <v>40.599427938461297</v>
+        <v>11.391687870025599</v>
       </c>
       <c r="P6">
-        <v>107.07232464941799</v>
+        <v>204.621044462453</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R6">
-        <v>40.915786087512899</v>
+        <v>11.5103445649147</v>
       </c>
       <c r="S6">
-        <v>93.243173952511597</v>
+        <v>226.87775109361399</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>42.066675186157198</v>
+        <v>11.8445917367935</v>
       </c>
       <c r="V6">
-        <v>94.732989382129702</v>
+        <v>225.36427467032999</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>43.7076750993728</v>
+        <v>11.714887201786</v>
       </c>
       <c r="Y6">
-        <v>97.145951778563003</v>
+        <v>230.92490626625499</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA6">
-        <v>42.815876305103302</v>
+        <v>11.625535130500699</v>
       </c>
       <c r="AB6">
-        <v>89.538401515343196</v>
+        <v>229.195582318025</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="21"/>
-        <v>0.73333333333333339</v>
+        <f t="shared" ref="B7:B15" si="27">(E7+H7)/2</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="C7" s="10">
-        <f t="shared" si="22"/>
-        <v>48.782946119705784</v>
+        <f t="shared" ref="C7:C15" si="28">(F7+I7)/2</f>
+        <v>41.793300837278338</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="23"/>
-        <v>20.182842715105238</v>
+        <f t="shared" ref="D7:D13" si="29">(G7+J7)/2</f>
+        <v>95.378264186210743</v>
       </c>
       <c r="E7">
-        <f t="shared" si="24"/>
-        <v>0.80000000000000016</v>
+        <f t="shared" ref="E7:E16" si="30">(K7+N7+Q7)/3</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F7">
-        <f t="shared" si="25"/>
-        <v>47.955370704332928</v>
+        <f t="shared" ref="F7:F16" si="31">(L7+O7+R7)/3</f>
+        <v>40.723192811012233</v>
       </c>
       <c r="G7">
-        <f t="shared" si="26"/>
-        <v>20.134255655258002</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="27"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="G7:G16" si="32">(M7+P7+S7)/3</f>
+        <v>96.950747480409532</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" ref="H7:H16" si="33">(T7+W7+Z7)/3</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="I7">
-        <f t="shared" si="28"/>
-        <v>49.610521535078639</v>
+        <f t="shared" ref="I7:I16" si="34">(U7+X7+AA7)/3</f>
+        <v>42.863408863544436</v>
       </c>
       <c r="J7">
-        <f t="shared" si="29"/>
-        <v>20.231429774952471</v>
+        <f t="shared" ref="J7:J16" si="35">(V7+Y7+AB7)/3</f>
+        <v>93.805780892011967</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>48.836350262164999</v>
+        <v>40.654364407062502</v>
       </c>
       <c r="M7">
-        <v>19.722780213337</v>
+        <v>90.536743839299007</v>
       </c>
       <c r="N7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O7">
-        <v>47.3296741843223</v>
+        <v>40.599427938461297</v>
       </c>
       <c r="P7">
-        <v>20.000895512289901</v>
+        <v>107.07232464941799</v>
       </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>40.915786087512899</v>
+      </c>
+      <c r="S7">
+        <v>93.243173952511597</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>42.066675186157198</v>
+      </c>
+      <c r="V7">
+        <v>94.732989382129702</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>43.7076750993728</v>
+      </c>
+      <c r="Y7">
+        <v>97.145951778563003</v>
+      </c>
+      <c r="Z7">
         <v>0.8</v>
       </c>
-      <c r="R7">
-        <v>47.7000876665115</v>
-      </c>
-      <c r="S7">
-        <v>20.679091240147098</v>
-      </c>
-      <c r="T7">
-        <v>0.8</v>
-      </c>
-      <c r="U7">
-        <v>51.947521448135298</v>
-      </c>
-      <c r="V7">
-        <v>20.6766995264042</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>47.735525071620899</v>
-      </c>
-      <c r="Y7">
-        <v>20.804848074305301</v>
-      </c>
-      <c r="Z7">
-        <v>0.2</v>
-      </c>
       <c r="AA7">
-        <v>49.148518085479701</v>
+        <v>42.815876305103302</v>
       </c>
       <c r="AB7">
-        <v>19.2127417241479</v>
+        <v>89.538401515343196</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="21"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" si="22"/>
-        <v>111.78493799765857</v>
+        <f t="shared" ref="B8" si="36">(E8+H8)/2</f>
+        <v>1</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="23"/>
-        <v>11.456370074088882</v>
+        <f t="shared" ref="D8" si="37">(G8+J8)/2</f>
+        <v>56.388619617645169</v>
       </c>
       <c r="E8">
-        <f t="shared" si="24"/>
-        <v>0.6</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="25"/>
-        <v>107.89505283037813</v>
+        <f t="shared" ref="E8" si="38">(K8+N8+Q8)/3</f>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="26"/>
-        <v>11.615732921817065</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="27"/>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="28"/>
-        <v>115.67482316493901</v>
+        <f t="shared" ref="G8" si="39">(M8+P8+S8)/3</f>
+        <v>56.073679945453073</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" ref="H8" si="40">(T8+W8+Z8)/3</f>
+        <v>1</v>
       </c>
       <c r="J8">
-        <f t="shared" si="29"/>
-        <v>11.2970072263607</v>
+        <f t="shared" ref="J8" si="41">(V8+Y8+AB8)/3</f>
+        <v>56.703559289837266</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
-      </c>
-      <c r="L8">
-        <v>95.377734303474398</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>11.655066018688499</v>
+        <v>57.582364731436499</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>114.61207395792</v>
-      </c>
       <c r="P8">
-        <v>11.722055911427701</v>
+        <v>58.354517899256997</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
-      </c>
-      <c r="R8">
-        <v>113.69535022974</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>11.470076835335</v>
+        <v>52.2841572056657</v>
       </c>
       <c r="T8">
-        <v>0.8</v>
-      </c>
-      <c r="U8">
-        <v>114.95517545938399</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>11.9665012625515</v>
+        <v>55.110209915315203</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
-      </c>
-      <c r="X8">
-        <v>116.188837826251</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>11.0707866611175</v>
+        <v>56.3631677164379</v>
       </c>
       <c r="Z8">
-        <v>0.6</v>
-      </c>
-      <c r="AA8">
-        <v>115.880456209182</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>10.853733755413099</v>
+        <v>58.637300237758701</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="21"/>
-        <v>0.83333333333333326</v>
+        <f t="shared" si="27"/>
+        <v>0.73333333333333339</v>
       </c>
       <c r="C9" s="10">
-        <f t="shared" si="22"/>
-        <v>20.401956319808917</v>
+        <f t="shared" si="28"/>
+        <v>48.782946119705784</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="23"/>
-        <v>39.803360358325811</v>
+        <f t="shared" si="29"/>
+        <v>20.182842715105238</v>
       </c>
       <c r="E9">
-        <f t="shared" si="24"/>
-        <v>0.73333333333333339</v>
+        <f t="shared" si="30"/>
+        <v>0.80000000000000016</v>
       </c>
       <c r="F9">
-        <f t="shared" si="25"/>
-        <v>20.283822158972367</v>
+        <f t="shared" si="31"/>
+        <v>47.955370704332928</v>
       </c>
       <c r="G9">
-        <f t="shared" si="26"/>
-        <v>39.807968734626094</v>
+        <f t="shared" si="32"/>
+        <v>20.134255655258002</v>
       </c>
       <c r="H9">
-        <f t="shared" si="27"/>
-        <v>0.93333333333333324</v>
+        <f t="shared" si="33"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9">
-        <f t="shared" si="28"/>
-        <v>20.520090480645468</v>
+        <f t="shared" si="34"/>
+        <v>49.610521535078639</v>
       </c>
       <c r="J9">
-        <f t="shared" si="29"/>
-        <v>39.798751982025529</v>
+        <f t="shared" si="35"/>
+        <v>20.231429774952471</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>48.836350262164999</v>
+      </c>
+      <c r="M9">
+        <v>19.722780213337</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="O9">
+        <v>47.3296741843223</v>
+      </c>
+      <c r="P9">
+        <v>20.000895512289901</v>
+      </c>
+      <c r="Q9">
         <v>0.8</v>
       </c>
-      <c r="L9">
-        <v>20.2876657843589</v>
-      </c>
-      <c r="M9">
-        <v>39.353832569191198</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>20.254073500633201</v>
-      </c>
-      <c r="P9">
-        <v>40.018364349162901</v>
-      </c>
-      <c r="Q9">
-        <v>0.4</v>
-      </c>
       <c r="R9">
-        <v>20.309727191924999</v>
+        <v>47.7000876665115</v>
       </c>
       <c r="S9">
-        <v>40.051709285524197</v>
+        <v>20.679091240147098</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U9">
-        <v>20.5489646196365</v>
+        <v>51.947521448135298</v>
       </c>
       <c r="V9">
-        <v>39.947983132267098</v>
+        <v>20.6766995264042</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>20.632891774177502</v>
+        <v>47.735525071620899</v>
       </c>
       <c r="Y9">
-        <v>39.768688765862997</v>
+        <v>20.804848074305301</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AA9">
-        <v>20.378415048122399</v>
+        <v>49.148518085479701</v>
       </c>
       <c r="AB9">
-        <v>39.679584047946499</v>
+        <v>19.2127417241479</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
-        <f t="shared" si="21"/>
-        <v>0.83333333333333348</v>
+        <f t="shared" si="27"/>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" si="22"/>
-        <v>35.309841950734437</v>
+        <f t="shared" si="28"/>
+        <v>111.78493799765857</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="23"/>
-        <v>32.472148444375534</v>
+        <f t="shared" si="29"/>
+        <v>11.456370074088882</v>
       </c>
       <c r="E10">
-        <f t="shared" si="24"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="30"/>
+        <v>0.6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="25"/>
-        <v>32.394706447919198</v>
+        <f t="shared" si="31"/>
+        <v>107.89505283037813</v>
       </c>
       <c r="G10">
-        <f t="shared" si="26"/>
-        <v>35.163107928668666</v>
+        <f t="shared" si="32"/>
+        <v>11.615732921817065</v>
       </c>
       <c r="H10">
-        <f t="shared" si="27"/>
-        <v>0.80000000000000016</v>
+        <f t="shared" si="33"/>
+        <v>0.73333333333333339</v>
       </c>
       <c r="I10">
-        <f t="shared" si="28"/>
-        <v>38.22497745354967</v>
+        <f t="shared" si="34"/>
+        <v>115.67482316493901</v>
       </c>
       <c r="J10">
-        <f t="shared" si="29"/>
-        <v>29.781188960082403</v>
+        <f t="shared" si="35"/>
+        <v>11.2970072263607</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>32.520179152488701</v>
+        <v>95.377734303474398</v>
       </c>
       <c r="M10">
-        <v>35.759024075484596</v>
+        <v>11.655066018688499</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>32.4196415543556</v>
+        <v>114.61207395792</v>
       </c>
       <c r="P10">
-        <v>35.256936682747799</v>
+        <v>11.722055911427701</v>
       </c>
       <c r="Q10">
+        <v>0.2</v>
+      </c>
+      <c r="R10">
+        <v>113.69535022974</v>
+      </c>
+      <c r="S10">
+        <v>11.470076835335</v>
+      </c>
+      <c r="T10">
+        <v>0.8</v>
+      </c>
+      <c r="U10">
+        <v>114.95517545938399</v>
+      </c>
+      <c r="V10">
+        <v>11.9665012625515</v>
+      </c>
+      <c r="W10">
+        <v>0.8</v>
+      </c>
+      <c r="X10">
+        <v>116.188837826251</v>
+      </c>
+      <c r="Y10">
+        <v>11.0707866611175</v>
+      </c>
+      <c r="Z10">
         <v>0.6</v>
       </c>
-      <c r="R10">
-        <v>32.2442986369133</v>
-      </c>
-      <c r="S10">
-        <v>34.473363027773601</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>38.380604386329601</v>
-      </c>
-      <c r="V10">
-        <v>29.4549711300746</v>
-      </c>
-      <c r="W10">
-        <v>0.6</v>
-      </c>
-      <c r="X10">
-        <v>38.314494013786302</v>
-      </c>
-      <c r="Y10">
-        <v>30.282124640932601</v>
-      </c>
-      <c r="Z10">
-        <v>0.8</v>
-      </c>
       <c r="AA10">
-        <v>37.979833960533099</v>
+        <v>115.880456209182</v>
       </c>
       <c r="AB10">
-        <v>29.606471109240001</v>
+        <v>10.853733755413099</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
-        <f t="shared" si="21"/>
-        <v>0.79999999999999993</v>
+        <f t="shared" si="27"/>
+        <v>0.83333333333333326</v>
       </c>
       <c r="C11" s="10">
-        <f t="shared" si="22"/>
-        <v>30.322414388259219</v>
+        <f t="shared" si="28"/>
+        <v>20.401956319808917</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="23"/>
-        <v>21.451202448441617</v>
+        <f t="shared" si="29"/>
+        <v>39.803360358325811</v>
       </c>
       <c r="E11">
-        <f t="shared" si="24"/>
-        <v>0.79999999999999993</v>
+        <f t="shared" si="30"/>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F11">
-        <f t="shared" si="25"/>
-        <v>29.528001983960433</v>
+        <f t="shared" si="31"/>
+        <v>20.283822158972367</v>
       </c>
       <c r="G11">
-        <f t="shared" si="26"/>
-        <v>21.451882065099166</v>
+        <f t="shared" si="32"/>
+        <v>39.807968734626094</v>
       </c>
       <c r="H11">
-        <f t="shared" si="27"/>
-        <v>0.79999999999999993</v>
+        <f t="shared" si="33"/>
+        <v>0.93333333333333324</v>
       </c>
       <c r="I11">
-        <f t="shared" si="28"/>
-        <v>31.116826792558001</v>
+        <f t="shared" si="34"/>
+        <v>20.520090480645468</v>
       </c>
       <c r="J11">
-        <f t="shared" si="29"/>
-        <v>21.450522831784067</v>
+        <f t="shared" si="35"/>
+        <v>39.798751982025529</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>29.565241336822499</v>
+        <v>20.2876657843589</v>
       </c>
       <c r="M11">
-        <v>22.412314393447598</v>
+        <v>39.353832569191198</v>
       </c>
       <c r="N11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>29.481806337833401</v>
+        <v>20.254073500633201</v>
       </c>
       <c r="P11">
-        <v>22.455452487123999</v>
+        <v>40.018364349162901</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="R11">
-        <v>29.536958277225398</v>
+        <v>20.309727191924999</v>
       </c>
       <c r="S11">
-        <v>19.487879314725902</v>
+        <v>40.051709285524197</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>31.121570527553502</v>
+        <v>20.5489646196365</v>
       </c>
       <c r="V11">
-        <v>21.659336049378101</v>
+        <v>39.947983132267098</v>
       </c>
       <c r="W11">
         <v>0.8</v>
       </c>
       <c r="X11">
-        <v>31.138697326183301</v>
+        <v>20.632891774177502</v>
       </c>
       <c r="Y11">
-        <v>21.420609018985498</v>
+        <v>39.768688765862997</v>
       </c>
       <c r="Z11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>31.0902125239372</v>
+        <v>20.378415048122399</v>
       </c>
       <c r="AB11">
-        <v>21.271623426988601</v>
+        <v>39.679584047946499</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" ref="B12:D13" si="30">E12</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0.83333333333333348</v>
       </c>
       <c r="C12" s="10">
+        <f t="shared" si="28"/>
+        <v>35.309841950734437</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="29"/>
+        <v>32.472148444375534</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="30"/>
-        <v>74.449439326922047</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="30"/>
-        <v>16.672483669830633</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F12">
-        <f t="shared" si="25"/>
-        <v>74.449439326922047</v>
+        <f t="shared" si="31"/>
+        <v>32.394706447919198</v>
       </c>
       <c r="G12">
-        <f t="shared" si="26"/>
-        <v>16.672483669830633</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+        <f t="shared" si="32"/>
+        <v>35.163107928668666</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="33"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="34"/>
+        <v>38.22497745354967</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="35"/>
+        <v>29.781188960082403</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>74.403356909751807</v>
+        <v>32.520179152488701</v>
       </c>
       <c r="M12">
-        <v>16.869105105179901</v>
+        <v>35.759024075484596</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>74.203653872013007</v>
+        <v>32.4196415543556</v>
       </c>
       <c r="P12">
-        <v>16.334944394786799</v>
+        <v>35.256936682747799</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R12">
-        <v>74.741307199001298</v>
+        <v>32.2442986369133</v>
       </c>
       <c r="S12">
-        <v>16.8134015095252</v>
+        <v>34.473363027773601</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>38.380604386329601</v>
+      </c>
+      <c r="V12">
+        <v>29.4549711300746</v>
+      </c>
+      <c r="W12">
+        <v>0.6</v>
+      </c>
+      <c r="X12">
+        <v>38.314494013786302</v>
+      </c>
+      <c r="Y12">
+        <v>30.282124640932601</v>
+      </c>
+      <c r="Z12">
+        <v>0.8</v>
+      </c>
+      <c r="AA12">
+        <v>37.979833960533099</v>
+      </c>
+      <c r="AB12">
+        <v>29.606471109240001</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
+        <f t="shared" si="27"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="28"/>
+        <v>30.322414388259219</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="29"/>
+        <v>21.451202448441617</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <f t="shared" si="30"/>
-        <v>46.801008224487269</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="30"/>
-        <v>16.444276618167933</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="31">(K13+N13+Q13)/3</f>
-        <v>1</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="32">(L13+O13+R13)/3</f>
-        <v>46.801008224487269</v>
+        <f t="shared" si="31"/>
+        <v>29.528001983960433</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="33">(M13+P13+S13)/3</f>
-        <v>16.444276618167933</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+        <f t="shared" si="32"/>
+        <v>21.451882065099166</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="33"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="34"/>
+        <v>31.116826792558001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="35"/>
+        <v>21.450522831784067</v>
+      </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>46.882907450199099</v>
+        <v>29.565241336822499</v>
       </c>
       <c r="M13">
-        <v>16.2352792761763</v>
+        <v>22.412314393447598</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O13">
-        <v>46.783419013023298</v>
+        <v>29.481806337833401</v>
       </c>
       <c r="P13">
-        <v>16.6411082852044</v>
+        <v>22.455452487123999</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13">
-        <v>46.736698210239403</v>
+        <v>29.536958277225398</v>
       </c>
       <c r="S13">
-        <v>16.4564422931231</v>
+        <v>19.487879314725902</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>31.121570527553502</v>
+      </c>
+      <c r="V13">
+        <v>21.659336049378101</v>
+      </c>
+      <c r="W13">
+        <v>0.8</v>
+      </c>
+      <c r="X13">
+        <v>31.138697326183301</v>
+      </c>
+      <c r="Y13">
+        <v>21.420609018985498</v>
+      </c>
+      <c r="Z13">
+        <v>0.6</v>
+      </c>
+      <c r="AA13">
+        <v>31.0902125239372</v>
+      </c>
+      <c r="AB13">
+        <v>21.271623426988601</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>37</v>
+      <c r="A14" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="21"/>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" si="22"/>
-        <v>25.485657801230715</v>
+        <f t="shared" ref="B14" si="42">(E14+H14)/2</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" ref="D14" si="43">(G14+J14)/2</f>
+        <v>19.198738070558218</v>
       </c>
       <c r="E14">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="25"/>
-        <v>26.691059132416996</v>
+        <f t="shared" ref="E14" si="44">(K14+N14+Q14)/3</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="45">(M14+P14+S14)/3</f>
+        <v>19.094469327942502</v>
       </c>
       <c r="H14">
-        <f t="shared" si="27"/>
-        <v>0.6</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="28"/>
-        <v>24.280256470044435</v>
+        <f t="shared" ref="H14" si="46">(T14+W14+Z14)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="47">(V14+Y14+AB14)/3</f>
+        <v>19.303006813173933</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
-      </c>
-      <c r="L14">
-        <v>26.815033018588998</v>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.1980740015685</v>
       </c>
       <c r="N14">
-        <v>0.8</v>
-      </c>
-      <c r="O14">
-        <v>26.3705882430076</v>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>18.998228701056401</v>
       </c>
       <c r="Q14">
-        <v>0.6</v>
-      </c>
-      <c r="R14">
-        <v>26.8875561356544</v>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>19.0871052812026</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
-      <c r="U14">
-        <v>24.328595578670502</v>
+      <c r="V14">
+        <v>19.445704977152602</v>
       </c>
       <c r="W14">
-        <v>0.4</v>
-      </c>
-      <c r="X14">
-        <v>24.2399772405624</v>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>19.227594522053401</v>
       </c>
       <c r="Z14">
-        <v>0.4</v>
-      </c>
-      <c r="AA14">
-        <v>24.2721965909004</v>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>19.235720940315801</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" ref="B15:D15" si="34">(E15+H15)/2</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C15" s="10">
+        <f t="shared" si="28"/>
+        <v>25.485657801230715</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="30"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="31"/>
+        <v>26.691059132416996</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="33"/>
+        <v>0.6</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="34"/>
-        <v>18.7829784850279</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="34"/>
-        <v>34.728402454384664</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="25"/>
-        <v>18.664276182651466</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="26"/>
-        <v>35.559700704258532</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="28"/>
-        <v>18.901680787404334</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="29"/>
-        <v>33.897104204510804</v>
+        <v>24.280256470044435</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L15">
-        <v>18.367255985736801</v>
-      </c>
-      <c r="M15">
-        <v>38.260242365964999</v>
+        <v>26.815033018588998</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O15">
-        <v>18.733858823776199</v>
-      </c>
-      <c r="P15">
-        <v>35.434130084891102</v>
+        <v>26.3705882430076</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R15">
-        <v>18.8917137384414</v>
-      </c>
-      <c r="S15">
-        <v>32.984729661919502</v>
+        <v>26.8875561356544</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>19.2063717246055</v>
-      </c>
-      <c r="V15">
-        <v>29.4</v>
+        <v>24.328595578670502</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X15">
-        <v>18.659474909305501</v>
-      </c>
-      <c r="Y15">
-        <v>41.674010481438899</v>
+        <v>24.2399772405624</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>18.839195728301998</v>
-      </c>
-      <c r="AB15">
-        <v>30.617302132093499</v>
+        <v>24.2721965909004</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>45</v>
+      <c r="A16" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" ref="B16" si="35">(E16+H16)/2</f>
-        <v>0.10000000000000002</v>
+        <f t="shared" ref="B16:D16" si="48">(E16+H16)/2</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" ref="C16" si="36">(F16+I16)/2</f>
-        <v>17.436386535565035</v>
+        <f t="shared" si="48"/>
+        <v>16.099216987689299</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" ref="D16" si="37">(G16+J16)/2</f>
-        <v>6.385949832924867</v>
+        <f t="shared" si="48"/>
+        <v>35.385845977379184</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="38">(K16+N16+Q16)/3</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="39">(L16+O16+R16)/3</f>
-        <v>17.067543089389769</v>
+        <f t="shared" si="31"/>
+        <v>16.060989061991332</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16" si="40">(M16+P16+S16)/3</f>
-        <v>6.1793913580493403</v>
+        <f t="shared" si="32"/>
+        <v>34.841471952241498</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="41">(T16+W16+Z16)/3</f>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16" si="42">(U16+X16+AA16)/3</f>
-        <v>17.8052299817403</v>
+        <f t="shared" si="34"/>
+        <v>16.137444913387267</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16" si="43">(V16+Y16+AB16)/3</f>
-        <v>6.5925083078003937</v>
+        <f t="shared" si="35"/>
+        <v>35.930220002516869</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>17.145863652229298</v>
+        <v>15.6557817459106</v>
       </c>
       <c r="M16">
-        <v>6.3362250989350901</v>
+        <v>35.234153812495201</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O16">
-        <v>17.140545785427001</v>
+        <v>16.385274171829199</v>
       </c>
       <c r="P16">
-        <v>6.0266217079915503</v>
+        <v>33.822720814515598</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>16.916219830513</v>
+        <v>16.1419112682342</v>
       </c>
       <c r="S16">
-        <v>6.1753272672213804</v>
+        <v>35.467541229713703</v>
       </c>
       <c r="T16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>17.902980864048001</v>
+        <v>16.166614949703199</v>
       </c>
       <c r="V16">
-        <v>6.5199081895270101</v>
+        <v>36.234577783536601</v>
       </c>
       <c r="W16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>17.728280305862398</v>
+        <v>16.3090363144874</v>
       </c>
       <c r="Y16">
-        <v>6.3420418463271799</v>
+        <v>35.898417246745197</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>17.784428775310499</v>
+        <v>15.936683475971201</v>
       </c>
       <c r="AB16">
-        <v>6.91557488754699</v>
+        <v>35.657664977268801</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
+      <c r="A17" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="8">
-        <f>(K17+N17)/2</f>
-        <v>0</v>
+        <f t="shared" ref="B17" si="49">(E17+H17)/2</f>
+        <v>0.10000000000000002</v>
       </c>
       <c r="C17" s="10">
-        <f>(F17+I17)/2</f>
-        <v>10.545337865749932</v>
+        <f t="shared" ref="C17" si="50">(F17+I17)/2</f>
+        <v>17.436386535565035</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" ref="D17" si="51">(G17+J17)/2</f>
+        <v>6.385949832924867</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="44">(K17+N17+Q17)/3</f>
+        <f t="shared" ref="E17" si="52">(K17+N17+Q17)/3</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="45">(L17+O17+R17)/3</f>
-        <v>10.693376362323699</v>
+        <f t="shared" ref="F17" si="53">(L17+O17+R17)/3</f>
+        <v>17.067543089389769</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="54">(M17+P17+S17)/3</f>
+        <v>6.1793913580493403</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="46">(T17+W17+Z17)/3</f>
-        <v>0</v>
+        <f t="shared" ref="H17" si="55">(T17+W17+Z17)/3</f>
+        <v>0.20000000000000004</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" si="47">(U17+X17+AA17)/3</f>
-        <v>10.397299369176165</v>
+        <f t="shared" ref="I17" si="56">(U17+X17+AA17)/3</f>
+        <v>17.8052299817403</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="57">(V17+Y17+AB17)/3</f>
+        <v>6.5925083078003937</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.9786985516548</v>
+        <v>17.145863652229298</v>
+      </c>
+      <c r="M17">
+        <v>6.3362250989350901</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.6470544934272</v>
+        <v>17.140545785427001</v>
+      </c>
+      <c r="P17">
+        <v>6.0266217079915503</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>10.4543760418891</v>
+        <v>16.916219830513</v>
+      </c>
+      <c r="S17">
+        <v>6.1753272672213804</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U17">
-        <v>10.329829633235899</v>
+        <v>17.902980864048001</v>
+      </c>
+      <c r="V17">
+        <v>6.5199081895270101</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X17">
-        <v>10.508526802062899</v>
+        <v>17.728280305862398</v>
+      </c>
+      <c r="Y17">
+        <v>6.3420418463271799</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>10.353541672229699</v>
+        <v>17.784428775310499</v>
+      </c>
+      <c r="AB17">
+        <v>6.91557488754699</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>44</v>
+      <c r="A18" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="8">
-        <f>(K18+N18)/2</f>
+        <f t="shared" ref="B18" si="58">(E18+H18)/2</f>
         <v>0</v>
       </c>
       <c r="C18" s="10">
-        <f>L18</f>
-        <v>23.0938816070556</v>
+        <f t="shared" ref="C18" si="59">(F18+I18)/2</f>
+        <v>3.9709928532441419</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18" si="60">(G18+J18)/2</f>
+        <v>38.932817864227616</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="61">(K18+N18+Q18)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="62">(L18+O18+R18)/3</f>
+        <v>4.1157283584276803</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="63">(M18+P18+S18)/3</f>
+        <v>37.315827677669034</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="64">(T18+W18+Z18)/3</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18" si="65">(U18+X18+AA18)/3</f>
+        <v>3.826257348060603</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="66">(V18+Y18+AB18)/3</f>
+        <v>40.549808050786204</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.0938816070556</v>
+        <v>3.9616499543189998</v>
+      </c>
+      <c r="M18">
+        <v>42.118762705799398</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>4.2641502022743198</v>
+      </c>
+      <c r="P18">
+        <v>33.5356693059138</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>4.1213849186897198</v>
+      </c>
+      <c r="S18">
+        <v>36.293051021293898</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>3.9593868851661602</v>
+      </c>
+      <c r="V18">
+        <v>38.167544241214102</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>3.85202956199646</v>
+      </c>
+      <c r="Y18">
+        <v>41.3323648412415</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>3.6673555970191898</v>
+      </c>
+      <c r="AB18">
+        <v>42.149515069903003</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>46</v>
+      <c r="A19" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" ref="B19" si="48">(E19+H19)/2</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="B19" si="67">(E19+H19)/2</f>
+        <v>0</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19" si="49">(F19+I19)/2</f>
-        <v>76.005207777023287</v>
+        <f t="shared" ref="C19" si="68">(F19+I19)/2</f>
+        <v>6.3029385209083522</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" ref="D19" si="50">(G19+J19)/2</f>
-        <v>45.056581913135403</v>
+        <f t="shared" ref="D19" si="69">(G19+J19)/2</f>
+        <v>13.990277727503058</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="51">(K19+N19+Q19)/3</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="E19" si="70">(K19+N19+Q19)/3</f>
+        <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="52">(L19+O19+R19)/3</f>
-        <v>77.130202849705981</v>
+        <f t="shared" ref="F19" si="71">(L19+O19+R19)/3</f>
+        <v>6.3819441000620474</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19" si="53">(M19+P19+S19)/3</f>
-        <v>45.07732749045914</v>
+        <f t="shared" ref="G19" si="72">(M19+P19+S19)/3</f>
+        <v>16.291720758614598</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19" si="54">(T19+W19+Z19)/3</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="H19" si="73">(T19+W19+Z19)/3</f>
+        <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19" si="55">(U19+X19+AA19)/3</f>
-        <v>74.880212704340593</v>
+        <f t="shared" ref="I19" si="74">(U19+X19+AA19)/3</f>
+        <v>6.2239329417546569</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19" si="56">(V19+Y19+AB19)/3</f>
-        <v>45.035836335811666</v>
+        <f t="shared" ref="J19" si="75">(V19+Y19+AB19)/3</f>
+        <v>11.688834696391517</v>
       </c>
       <c r="K19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>79.856281280517507</v>
+        <v>6.3757622838020298</v>
       </c>
       <c r="M19">
-        <v>44.7471429887173</v>
+        <v>20.801695615304698</v>
       </c>
       <c r="N19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>74.917352199554401</v>
+        <v>6.4251021146774203</v>
       </c>
       <c r="P19">
-        <v>45.040830726209698</v>
+        <v>14.298804838749501</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>76.616975069046006</v>
+        <v>6.3449679017066902</v>
       </c>
       <c r="S19">
-        <v>45.444008756450401</v>
+        <v>13.7746618217896</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>71.489932060241699</v>
+        <v>5.9516217112541199</v>
       </c>
       <c r="V19">
-        <v>43.856857747899603</v>
+        <v>11.0317770135877</v>
       </c>
       <c r="W19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>75.299768924713106</v>
+        <v>6.5699424743652299</v>
       </c>
       <c r="Y19">
-        <v>45.857705588388797</v>
+        <v>14.0413881682284</v>
       </c>
       <c r="Z19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>77.850937128067002</v>
+        <v>6.1502346396446201</v>
       </c>
       <c r="AB19">
-        <v>45.392945671146599</v>
+        <v>9.9933389073584493</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" ref="B20" si="57">(E20+H20)/2</f>
+        <f t="shared" ref="B20" si="76">(E20+H20)/2</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" ref="C20" si="58">(F20+I20)/2</f>
+        <f t="shared" ref="C20" si="77">(F20+I20)/2</f>
         <v>5.019069343805306</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20" si="59">(G20+J20)/2</f>
+        <f t="shared" ref="D20" si="78">(G20+J20)/2</f>
         <v>30.835901143424049</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="60">(K20+N20+Q20)/3</f>
+        <f t="shared" ref="E20" si="79">(K20+N20+Q20)/3</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="61">(L20+O20+R20)/3</f>
+        <f t="shared" ref="F20" si="80">(L20+O20+R20)/3</f>
         <v>4.9473839600880867</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20" si="62">(M20+P20+S20)/3</f>
+        <f t="shared" ref="G20" si="81">(M20+P20+S20)/3</f>
         <v>29.132505753867832</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="63">(T20+W20+Z20)/3</f>
+        <f t="shared" ref="H20" si="82">(T20+W20+Z20)/3</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="64">(U20+X20+AA20)/3</f>
+        <f t="shared" ref="I20" si="83">(U20+X20+AA20)/3</f>
         <v>5.0907547275225262</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="65">(V20+Y20+AB20)/3</f>
+        <f t="shared" ref="J20" si="84">(V20+Y20+AB20)/3</f>
         <v>32.539296532980266</v>
       </c>
       <c r="K20">
@@ -2423,42 +2556,42 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" ref="B21" si="66">(E21+H21)/2</f>
+        <f t="shared" ref="B21" si="85">(E21+H21)/2</f>
         <v>0.93333333333333335</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" ref="C21" si="67">(F21+I21)/2</f>
+        <f t="shared" ref="C21" si="86">(F21+I21)/2</f>
         <v>15.909321894248267</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21" si="68">(G21+J21)/2</f>
+        <f t="shared" ref="D21" si="87">(G21+J21)/2</f>
         <v>22.25878458749262</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="69">(K21+N21+Q21)/3</f>
+        <f t="shared" ref="E21" si="88">(K21+N21+Q21)/3</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="70">(L21+O21+R21)/3</f>
+        <f t="shared" ref="F21" si="89">(L21+O21+R21)/3</f>
         <v>15.684417903423267</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="71">(M21+P21+S21)/3</f>
+        <f t="shared" ref="G21" si="90">(M21+P21+S21)/3</f>
         <v>22.732833999035435</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="72">(T21+W21+Z21)/3</f>
+        <f t="shared" ref="H21" si="91">(T21+W21+Z21)/3</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="73">(U21+X21+AA21)/3</f>
+        <f t="shared" ref="I21" si="92">(U21+X21+AA21)/3</f>
         <v>16.134225885073267</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="74">(V21+Y21+AB21)/3</f>
+        <f t="shared" ref="J21" si="93">(V21+Y21+AB21)/3</f>
         <v>21.784735175949802</v>
       </c>
       <c r="K21">
@@ -2518,42 +2651,42 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:B23" si="75">(E22+H22)/2</f>
+        <f t="shared" ref="B22:B23" si="94">(E22+H22)/2</f>
         <v>0</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" ref="C22:C23" si="76">(F22+I22)/2</f>
+        <f t="shared" ref="C22:C23" si="95">(F22+I22)/2</f>
         <v>14.505219906568467</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" ref="D22:D23" si="77">(G22+J22)/2</f>
+        <f t="shared" ref="D22:D23" si="96">(G22+J22)/2</f>
         <v>18.091989977035485</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E23" si="78">(K22+N22+Q22)/3</f>
+        <f t="shared" ref="E22:E23" si="97">(K22+N22+Q22)/3</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F23" si="79">(L22+O22+R22)/3</f>
+        <f t="shared" ref="F22:F23" si="98">(L22+O22+R22)/3</f>
         <v>12.863241195678667</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G23" si="80">(M22+P22+S22)/3</f>
+        <f t="shared" ref="G22:G23" si="99">(M22+P22+S22)/3</f>
         <v>15.3951782672949</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="81">(T22+W22+Z22)/3</f>
+        <f t="shared" ref="H22:H23" si="100">(T22+W22+Z22)/3</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="82">(U22+X22+AA22)/3</f>
+        <f t="shared" ref="I22:I23" si="101">(U22+X22+AA22)/3</f>
         <v>16.147198617458265</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J23" si="83">(V22+Y22+AB22)/3</f>
+        <f t="shared" ref="J22:J23" si="102">(V22+Y22+AB22)/3</f>
         <v>20.788801686776068</v>
       </c>
       <c r="K22">
@@ -2612,364 +2745,488 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>50</v>
+      <c r="A23" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" si="75"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="94"/>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" si="76"/>
-        <v>17.880254308382618</v>
+        <f t="shared" si="95"/>
+        <v>13.10261040925975</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="77"/>
-        <v>24.535812248385518</v>
+        <f t="shared" si="96"/>
+        <v>26.267735222085953</v>
       </c>
       <c r="E23">
-        <f t="shared" si="78"/>
-        <v>0.6</v>
+        <f t="shared" si="97"/>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F23">
-        <f t="shared" si="79"/>
-        <v>15.657827874024667</v>
+        <f t="shared" si="98"/>
+        <v>12.345974663893335</v>
       </c>
       <c r="G23">
-        <f t="shared" si="80"/>
-        <v>25.1258367466545</v>
+        <f t="shared" si="99"/>
+        <v>26.6513715031118</v>
       </c>
       <c r="H23">
-        <f t="shared" si="81"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="100"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I23">
-        <f t="shared" si="82"/>
-        <v>20.102680742740567</v>
+        <f t="shared" si="101"/>
+        <v>13.859246154626165</v>
       </c>
       <c r="J23">
-        <f t="shared" si="83"/>
-        <v>23.945787750116533</v>
+        <f t="shared" si="102"/>
+        <v>25.884098941060103</v>
       </c>
       <c r="K23">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>14.5751335024833</v>
+        <v>12.1342772841453</v>
       </c>
       <c r="M23">
-        <v>24.691726223210502</v>
+        <v>25.8647977079276</v>
       </c>
       <c r="N23">
         <v>0.6</v>
       </c>
       <c r="O23">
-        <v>16.181987583637198</v>
+        <v>12.166121006011901</v>
       </c>
       <c r="P23">
-        <v>26.760092127325098</v>
+        <v>27.606587088167799</v>
       </c>
       <c r="Q23">
         <v>0.8</v>
       </c>
       <c r="R23">
-        <v>16.2163625359535</v>
+        <v>12.737525701522801</v>
       </c>
       <c r="S23">
-        <v>23.925691889427899</v>
+        <v>26.482729713240001</v>
       </c>
       <c r="T23">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U23">
-        <v>21.108941495418499</v>
+        <v>13.6452530622482</v>
       </c>
       <c r="V23">
-        <v>23.585698291301</v>
+        <v>26.405532009994399</v>
       </c>
       <c r="W23">
+        <v>0.8</v>
+      </c>
+      <c r="X23">
+        <v>13.789308547973601</v>
+      </c>
+      <c r="Y23">
+        <v>26.930136856266301</v>
+      </c>
+      <c r="Z23">
         <v>0.6</v>
       </c>
-      <c r="X23">
-        <v>18.920448184013299</v>
-      </c>
-      <c r="Y23">
-        <v>22.7302591735343</v>
-      </c>
-      <c r="Z23">
-        <v>0.2</v>
-      </c>
       <c r="AA23">
-        <v>20.2786525487899</v>
+        <v>14.1431768536567</v>
       </c>
       <c r="AB23">
-        <v>25.5214057855143</v>
+        <v>24.3166279569196</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>52</v>
+      <c r="A24" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24" si="84">E24</f>
-        <v>1</v>
+        <f t="shared" ref="B24" si="103">(E24+H24)/2</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24" si="85">F24</f>
-        <v>49.664993882179203</v>
+        <f t="shared" ref="C24" si="104">(F24+I24)/2</f>
+        <v>23.710527668396598</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" ref="D24" si="86">G24</f>
-        <v>16.518642490803103</v>
+        <f t="shared" ref="D24" si="105">(G24+J24)/2</f>
+        <v>83.048045491060634</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E25" si="87">(K24+N24+Q24)/3</f>
-        <v>1</v>
+        <f t="shared" ref="E24" si="106">(K24+N24+Q24)/3</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F25" si="88">(L24+O24+R24)/3</f>
-        <v>49.664993882179203</v>
+        <f t="shared" ref="F24" si="107">(L24+O24+R24)/3</f>
+        <v>23.3840361833572</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G25" si="89">(M24+P24+S24)/3</f>
-        <v>16.518642490803103</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+        <f t="shared" ref="G24" si="108">(M24+P24+S24)/3</f>
+        <v>83.187636415438689</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24" si="109">(T24+W24+Z24)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="110">(U24+X24+AA24)/3</f>
+        <v>24.037019153435995</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="111">(V24+Y24+AB24)/3</f>
+        <v>82.908454566682565</v>
+      </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>47.988940834998999</v>
+        <v>23.400462925434098</v>
       </c>
       <c r="M24">
-        <v>16.550851050969101</v>
+        <v>84.534328886317894</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>48.320182800292898</v>
+        <v>23.465559780597602</v>
       </c>
       <c r="P24">
-        <v>16.5457539924553</v>
+        <v>84.108858751587505</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>52.685858011245699</v>
+        <v>23.286085844039899</v>
       </c>
       <c r="S24">
-        <v>16.459322428984901</v>
+        <v>80.919721608410697</v>
+      </c>
+      <c r="T24">
+        <v>0.6</v>
+      </c>
+      <c r="U24">
+        <v>24.095977485179901</v>
+      </c>
+      <c r="V24">
+        <v>80.636437391806695</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>23.878830254077901</v>
+      </c>
+      <c r="Y24">
+        <v>84.579919944815202</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>24.136249721050199</v>
+      </c>
+      <c r="AB24">
+        <v>83.509006363425797</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>53</v>
+      <c r="A25" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" ref="B25" si="90">(E25+H25)/2</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="B25" si="112">(E25+H25)/2</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25" si="91">(F25+I25)/2</f>
-        <v>23.710527668396598</v>
+        <f t="shared" ref="C25" si="113">(F25+I25)/2</f>
+        <v>28.253571649392399</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" ref="D25" si="92">(G25+J25)/2</f>
-        <v>83.048045491060634</v>
+        <f t="shared" ref="D25" si="114">(G25+J25)/2</f>
+        <v>24.328894134402404</v>
       </c>
       <c r="E25">
-        <f t="shared" si="87"/>
-        <v>0.93333333333333324</v>
+        <f t="shared" ref="E25" si="115">(K25+N25+Q25)/3</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F25">
-        <f t="shared" si="88"/>
-        <v>23.3840361833572</v>
+        <f t="shared" ref="F25" si="116">(L25+O25+R25)/3</f>
+        <v>27.555681546529101</v>
       </c>
       <c r="G25">
-        <f t="shared" si="89"/>
-        <v>83.187636415438689</v>
+        <f t="shared" ref="G25" si="117">(M25+P25+S25)/3</f>
+        <v>24.429171104932035</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="93">(T25+W25+Z25)/3</f>
+        <f t="shared" ref="H25" si="118">(T25+W25+Z25)/3</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="94">(U25+X25+AA25)/3</f>
-        <v>24.037019153435995</v>
+        <f t="shared" ref="I25" si="119">(U25+X25+AA25)/3</f>
+        <v>28.9514617522557</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="95">(V25+Y25+AB25)/3</f>
-        <v>82.908454566682565</v>
+        <f t="shared" ref="J25" si="120">(V25+Y25+AB25)/3</f>
+        <v>24.228617163872769</v>
       </c>
       <c r="K25">
         <v>0.8</v>
       </c>
       <c r="L25">
-        <v>23.400462925434098</v>
+        <v>27.953351855278001</v>
       </c>
       <c r="M25">
-        <v>84.534328886317894</v>
+        <v>24.995768119916399</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>23.465559780597602</v>
+        <v>26.2293851971626</v>
       </c>
       <c r="P25">
-        <v>84.108858751587505</v>
+        <v>23.631970382321999</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R25">
-        <v>23.286085844039899</v>
+        <v>28.484307587146699</v>
       </c>
       <c r="S25">
-        <v>80.919721608410697</v>
+        <v>24.6597748125577</v>
       </c>
       <c r="T25">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="U25">
-        <v>24.095977485179901</v>
+        <v>29.282195568084699</v>
       </c>
       <c r="V25">
-        <v>80.636437391806695</v>
+        <v>24.4957581751313</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
-        <v>23.878830254077901</v>
+        <v>28.576601803302701</v>
       </c>
       <c r="Y25">
-        <v>84.579919944815202</v>
+        <v>24.409804179345301</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>24.136249721050199</v>
+        <v>28.995587885379699</v>
       </c>
       <c r="AB25">
-        <v>83.509006363425797</v>
+        <v>23.7802891371417</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>54</v>
+      <c r="A26" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="8">
-        <f t="shared" ref="B26" si="96">(E26+H26)/2</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="B26" si="121">(E26+H26)/2</f>
+        <v>0.96666666666666656</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" ref="C26" si="97">(F26+I26)/2</f>
-        <v>28.253571649392399</v>
+        <f t="shared" ref="C26" si="122">(F26+I26)/2</f>
+        <v>10.031219770510951</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" ref="D26" si="98">(G26+J26)/2</f>
-        <v>24.328894134402404</v>
+        <f t="shared" ref="D26" si="123">(G26+J26)/2</f>
+        <v>15.415410316756148</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="99">(K26+N26+Q26)/3</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="E26" si="124">(K26+N26+Q26)/3</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="100">(L26+O26+R26)/3</f>
-        <v>27.555681546529101</v>
+        <f t="shared" ref="F26" si="125">(L26+O26+R26)/3</f>
+        <v>10.055379966894749</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="101">(M26+P26+S26)/3</f>
-        <v>24.429171104932035</v>
+        <f t="shared" ref="G26" si="126">(M26+P26+S26)/3</f>
+        <v>15.479501844680833</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="102">(T26+W26+Z26)/3</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="H26" si="127">(T26+W26+Z26)/3</f>
+        <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="103">(U26+X26+AA26)/3</f>
-        <v>28.9514617522557</v>
+        <f t="shared" ref="I26" si="128">(U26+X26+AA26)/3</f>
+        <v>10.007059574127155</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="104">(V26+Y26+AB26)/3</f>
-        <v>24.228617163872769</v>
+        <f t="shared" ref="J26" si="129">(V26+Y26+AB26)/3</f>
+        <v>15.351318788831465</v>
       </c>
       <c r="K26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>27.953351855278001</v>
+        <v>10.056697070598601</v>
       </c>
       <c r="M26">
-        <v>24.995768119916399</v>
+        <v>15.6336833110188</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>26.2293851971626</v>
+        <v>9.9979093074798495</v>
       </c>
       <c r="P26">
-        <v>23.631970382321999</v>
+        <v>15.4650489886705</v>
       </c>
       <c r="Q26">
         <v>0.8</v>
       </c>
       <c r="R26">
-        <v>28.484307587146699</v>
+        <v>10.1115335226058</v>
       </c>
       <c r="S26">
-        <v>24.6597748125577</v>
+        <v>15.339773234353199</v>
       </c>
       <c r="T26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>29.282195568084699</v>
+        <v>10.011250138282699</v>
       </c>
       <c r="V26">
-        <v>24.4957581751313</v>
+        <v>15.0523643941951</v>
       </c>
       <c r="W26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>28.576601803302701</v>
+        <v>10.0370129346847</v>
       </c>
       <c r="Y26">
-        <v>24.409804179345301</v>
+        <v>15.0996697599216</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>28.995587885379699</v>
+        <v>9.9729156494140607</v>
       </c>
       <c r="AB26">
-        <v>23.7802891371417</v>
+        <v>15.9019222123777</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>49</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" ref="B27" si="130">(E27+H27)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27" si="131">(F27+I27)/2</f>
+        <v>11.130385418732917</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27" si="132">(G27+J27)/2</f>
+        <v>15.737520861802617</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="133">(K27+N27+Q27)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="134">(L27+O27+R27)/3</f>
+        <v>10.427733719348867</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="135">(M27+P27+S27)/3</f>
+        <v>15.224439942233566</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="136">(T27+W27+Z27)/3</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="137">(U27+X27+AA27)/3</f>
+        <v>11.833037118116968</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="138">(V27+Y27+AB27)/3</f>
+        <v>16.250601781371667</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>10.474620878696401</v>
+      </c>
+      <c r="M27">
+        <v>15.166229827715</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>10.4480928778648</v>
+      </c>
+      <c r="P27">
+        <v>15.1829594150083</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>10.3604874014854</v>
+      </c>
+      <c r="S27">
+        <v>15.3241305839774</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>13.177230298519101</v>
+      </c>
+      <c r="V27">
+        <v>17.181040944891802</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>11.099819123744901</v>
+      </c>
+      <c r="Y27">
+        <v>15.7460111021909</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>11.2220619320869</v>
+      </c>
+      <c r="AB27">
+        <v>15.8247532970323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H24:J24"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D27:D1048576 D1:D12 D14:D18">
+  <conditionalFormatting sqref="D28:D1048576 D1:D19">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2981,7 +3238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C1048576 C1:C12 C14:C18">
+  <conditionalFormatting sqref="C28:C1048576 C1:C19">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2993,7 +3250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B1048576 B1:B12 B14:B18">
+  <conditionalFormatting sqref="B28:B1048576 B1:B19">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3005,43 +3262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C1048576 C1:C18">
+  <conditionalFormatting sqref="C28:C1048576">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3053,7 +3274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D1048576 D1:D18">
+  <conditionalFormatting sqref="D28:D1048576">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3065,7 +3286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B1048576 B1:B18">
+  <conditionalFormatting sqref="B28:B1048576">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3077,79 +3298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C23">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B23">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C23">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B23">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C1048576 C1:C23">
+  <conditionalFormatting sqref="C28:C1048576 C1:C23">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3161,7 +3310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D1048576 D1:D23">
+  <conditionalFormatting sqref="D28:D1048576 D1:D23">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3173,103 +3322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
+  <conditionalFormatting sqref="D24:D27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3281,7 +3334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
+  <conditionalFormatting sqref="C24:C27">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3293,7 +3346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
+  <conditionalFormatting sqref="B24:B27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3305,7 +3358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
+  <conditionalFormatting sqref="C24:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3317,7 +3370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
+  <conditionalFormatting sqref="D24:D27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3329,7 +3382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
+  <conditionalFormatting sqref="B24:B27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3341,7 +3394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
+  <conditionalFormatting sqref="C24:C27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3353,7 +3406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
+  <conditionalFormatting sqref="D24:D27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3365,6 +3418,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D23">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C23">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B23">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B933181-385E-4362-9556-75C3FF59D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388356A1-113B-405C-A7E0-EAEFE24AE311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="555" windowWidth="25515" windowHeight="14625" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="29985" yWindow="870" windowWidth="25515" windowHeight="14625" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>模型名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,19 +227,11 @@
     <t>gpt-4o-2024-05-13</t>
   </si>
   <si>
-    <t>gpt-4o-mini-2024-07-18 (op)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>claude-3-5-sonnet (op)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>command-r (op)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>command-r-plus (op)</t>
+    <t>gpt-4o-mini-2024-07-18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F31D32-139F-4AD6-897B-A551476427E9}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,97 +1118,97 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8">
         <f>(E5+H5)/2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" ref="C5" si="15">(F5+I5)/2</f>
-        <v>3.6872941454251551</v>
+        <v>22.782430162032398</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ref="D5" si="16">(G5+J5)/2</f>
-        <v>52.914399002980161</v>
+        <v>28.209140191882689</v>
       </c>
       <c r="E5">
         <f>(K5+N5+Q5)/3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5" si="17">(L5+O5+R5)/3</f>
-        <v>3.6389665802319797</v>
+        <v>21.385246773560798</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5" si="18">(M5+P5+S5)/3</f>
-        <v>51.800413385747163</v>
+        <v>27.263403156770703</v>
       </c>
       <c r="H5">
         <f>(T5+W5+Z5)/3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5" si="19">(U5+X5+AA5)/3</f>
-        <v>3.73562171061833</v>
+        <v>24.179613550504001</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5" si="20">(V5+Y5+AB5)/3</f>
-        <v>54.02838462021316</v>
+        <v>29.154877226994671</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>4.0151860117912204</v>
+        <v>12.091316819190901</v>
       </c>
       <c r="M5">
-        <v>49.615698411317197</v>
+        <v>25.869760065925199</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>3.3837074637412998</v>
+        <v>28.6037510037422</v>
       </c>
       <c r="P5">
-        <v>51.909391119869902</v>
+        <v>29.255506821287099</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>3.5180062651634199</v>
+        <v>23.4606724977493</v>
       </c>
       <c r="S5">
-        <v>53.876150626054397</v>
+        <v>26.664942583099801</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>3.7094197869300798</v>
+        <v>21.909811973571699</v>
       </c>
       <c r="V5">
-        <v>57.824380489666602</v>
+        <v>29.5405709693575</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>3.6970686316490098</v>
+        <v>24.275514721870401</v>
       </c>
       <c r="Y5">
-        <v>52.477024023952197</v>
+        <v>28.310246057713002</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>3.8003767132759001</v>
+        <v>26.3535139560699</v>
       </c>
       <c r="AB5">
-        <v>51.783749347020702</v>
+        <v>29.613814653913501</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1411,7 +1403,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" ref="B8" si="36">(E8+H8)/2</f>
@@ -2270,20 +2262,20 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>53</v>
+      <c r="A18" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" ref="B18" si="58">(E18+H18)/2</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18" si="59">(F18+I18)/2</f>
-        <v>3.9709928532441419</v>
+        <v>5.019069343805306</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" ref="D18" si="60">(G18+J18)/2</f>
-        <v>38.932817864227616</v>
+        <v>30.835901143424049</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18" si="61">(K18+N18+Q18)/3</f>
@@ -2291,569 +2283,569 @@
       </c>
       <c r="F18">
         <f t="shared" ref="F18" si="62">(L18+O18+R18)/3</f>
-        <v>4.1157283584276803</v>
+        <v>4.9473839600880867</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="63">(M18+P18+S18)/3</f>
-        <v>37.315827677669034</v>
+        <v>29.132505753867832</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18" si="64">(T18+W18+Z18)/3</f>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18" si="65">(U18+X18+AA18)/3</f>
-        <v>3.826257348060603</v>
+        <v>5.0907547275225262</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18" si="66">(V18+Y18+AB18)/3</f>
-        <v>40.549808050786204</v>
+        <v>32.539296532980266</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.9616499543189998</v>
+        <v>4.9815639853477398</v>
       </c>
       <c r="M18">
-        <v>42.118762705799398</v>
+        <v>25.0166521710083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.2641502022743198</v>
+        <v>4.9420642256736702</v>
       </c>
       <c r="P18">
-        <v>33.5356693059138</v>
+        <v>34.117869527363503</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.1213849186897198</v>
+        <v>4.91852366924285</v>
       </c>
       <c r="S18">
-        <v>36.293051021293898</v>
+        <v>28.262995563231701</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U18">
-        <v>3.9593868851661602</v>
+        <v>5.1121951937675396</v>
       </c>
       <c r="V18">
-        <v>38.167544241214102</v>
+        <v>31.455094595908299</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>3.85202956199646</v>
+        <v>5.0425979495048496</v>
       </c>
       <c r="Y18">
-        <v>41.3323648412415</v>
+        <v>37.0520252821428</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3.6673555970191898</v>
+        <v>5.1174710392951903</v>
       </c>
       <c r="AB18">
-        <v>42.149515069903003</v>
+        <v>29.110769720889699</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" ref="B19" si="67">(E19+H19)/2</f>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C19" s="10">
         <f t="shared" ref="C19" si="68">(F19+I19)/2</f>
-        <v>6.3029385209083522</v>
+        <v>15.909321894248267</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" ref="D19" si="69">(G19+J19)/2</f>
-        <v>13.990277727503058</v>
+        <v>22.25878458749262</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19" si="70">(K19+N19+Q19)/3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f t="shared" ref="F19" si="71">(L19+O19+R19)/3</f>
-        <v>6.3819441000620474</v>
+        <v>15.684417903423267</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="72">(M19+P19+S19)/3</f>
-        <v>16.291720758614598</v>
+        <v>22.732833999035435</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="73">(T19+W19+Z19)/3</f>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="74">(U19+X19+AA19)/3</f>
-        <v>6.2239329417546569</v>
+        <v>16.134225885073267</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="75">(V19+Y19+AB19)/3</f>
-        <v>11.688834696391517</v>
+        <v>21.784735175949802</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>6.3757622838020298</v>
+        <v>15.596988320350601</v>
       </c>
       <c r="M19">
-        <v>20.801695615304698</v>
+        <v>23.655920785605101</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>6.4251021146774203</v>
+        <v>15.712495863437599</v>
       </c>
       <c r="P19">
-        <v>14.298804838749501</v>
+        <v>23.7034889725462</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>6.3449679017066902</v>
+        <v>15.7437695264816</v>
       </c>
       <c r="S19">
-        <v>13.7746618217896</v>
+        <v>20.839092238955001</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>5.9516217112541199</v>
+        <v>16.052135288715299</v>
       </c>
       <c r="V19">
-        <v>11.0317770135877</v>
+        <v>22.248337776166501</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
-        <v>6.5699424743652299</v>
+        <v>16.016916513442901</v>
       </c>
       <c r="Y19">
-        <v>14.0413881682284</v>
+        <v>21.514771036600202</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
-        <v>6.1502346396446201</v>
+        <v>16.333625853061601</v>
       </c>
       <c r="AB19">
-        <v>9.9933389073584493</v>
+        <v>21.591096715082699</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
+      <c r="A20" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" ref="B20" si="76">(E20+H20)/2</f>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" ref="B20:B21" si="76">(E20+H20)/2</f>
+        <v>0</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" ref="C20" si="77">(F20+I20)/2</f>
-        <v>5.019069343805306</v>
+        <f t="shared" ref="C20:C21" si="77">(F20+I20)/2</f>
+        <v>14.505219906568467</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20" si="78">(G20+J20)/2</f>
-        <v>30.835901143424049</v>
+        <f t="shared" ref="D20:D21" si="78">(G20+J20)/2</f>
+        <v>18.091989977035485</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="79">(K20+N20+Q20)/3</f>
+        <f t="shared" ref="E20:E21" si="79">(K20+N20+Q20)/3</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="80">(L20+O20+R20)/3</f>
-        <v>4.9473839600880867</v>
+        <f t="shared" ref="F20:F21" si="80">(L20+O20+R20)/3</f>
+        <v>12.863241195678667</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20" si="81">(M20+P20+S20)/3</f>
-        <v>29.132505753867832</v>
+        <f t="shared" ref="G20:G21" si="81">(M20+P20+S20)/3</f>
+        <v>15.3951782672949</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="82">(T20+W20+Z20)/3</f>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" ref="H20:H21" si="82">(T20+W20+Z20)/3</f>
+        <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="83">(U20+X20+AA20)/3</f>
-        <v>5.0907547275225262</v>
+        <f t="shared" ref="I20:I21" si="83">(U20+X20+AA20)/3</f>
+        <v>16.147198617458265</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="84">(V20+Y20+AB20)/3</f>
-        <v>32.539296532980266</v>
+        <f t="shared" ref="J20:J21" si="84">(V20+Y20+AB20)/3</f>
+        <v>20.788801686776068</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.9815639853477398</v>
+        <v>12.5657751560211</v>
       </c>
       <c r="M20">
-        <v>25.0166521710083</v>
+        <v>15.3062028157262</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.9420642256736702</v>
+        <v>12.6883382797241</v>
       </c>
       <c r="P20">
-        <v>34.117869527363503</v>
+        <v>14.5019327833588</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>4.91852366924285</v>
+        <v>13.335610151290799</v>
       </c>
       <c r="S20">
-        <v>28.262995563231701</v>
+        <v>16.377399202799701</v>
       </c>
       <c r="T20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>5.1121951937675396</v>
+        <v>18.167833626270198</v>
       </c>
       <c r="V20">
-        <v>31.455094595908299</v>
+        <v>13.4087535110377</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>5.0425979495048496</v>
+        <v>15.095551729202199</v>
       </c>
       <c r="Y20">
-        <v>37.0520252821428</v>
+        <v>19.889569502444999</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>5.1174710392951903</v>
+        <v>15.1782104969024</v>
       </c>
       <c r="AB20">
-        <v>29.110769720889699</v>
+        <v>29.0680820468455</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>41</v>
+      <c r="A21" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" ref="B21" si="85">(E21+H21)/2</f>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="76"/>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" ref="C21" si="86">(F21+I21)/2</f>
-        <v>15.909321894248267</v>
+        <f t="shared" si="77"/>
+        <v>13.10261040925975</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21" si="87">(G21+J21)/2</f>
-        <v>22.25878458749262</v>
+        <f t="shared" si="78"/>
+        <v>26.267735222085953</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="88">(K21+N21+Q21)/3</f>
-        <v>1</v>
+        <f t="shared" si="79"/>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="89">(L21+O21+R21)/3</f>
-        <v>15.684417903423267</v>
+        <f t="shared" si="80"/>
+        <v>12.345974663893335</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="90">(M21+P21+S21)/3</f>
-        <v>22.732833999035435</v>
+        <f t="shared" si="81"/>
+        <v>26.6513715031118</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="91">(T21+W21+Z21)/3</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="82"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="92">(U21+X21+AA21)/3</f>
-        <v>16.134225885073267</v>
+        <f t="shared" si="83"/>
+        <v>13.859246154626165</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="93">(V21+Y21+AB21)/3</f>
-        <v>21.784735175949802</v>
+        <f t="shared" si="84"/>
+        <v>25.884098941060103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>15.596988320350601</v>
+        <v>12.1342772841453</v>
       </c>
       <c r="M21">
-        <v>23.655920785605101</v>
+        <v>25.8647977079276</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O21">
-        <v>15.712495863437599</v>
+        <v>12.166121006011901</v>
       </c>
       <c r="P21">
-        <v>23.7034889725462</v>
+        <v>27.606587088167799</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R21">
-        <v>15.7437695264816</v>
+        <v>12.737525701522801</v>
       </c>
       <c r="S21">
-        <v>20.839092238955001</v>
+        <v>26.482729713240001</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="U21">
-        <v>16.052135288715299</v>
+        <v>13.6452530622482</v>
       </c>
       <c r="V21">
-        <v>22.248337776166501</v>
+        <v>26.405532009994399</v>
       </c>
       <c r="W21">
         <v>0.8</v>
       </c>
       <c r="X21">
-        <v>16.016916513442901</v>
+        <v>13.789308547973601</v>
       </c>
       <c r="Y21">
-        <v>21.514771036600202</v>
+        <v>26.930136856266301</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AA21">
-        <v>16.333625853061601</v>
+        <v>14.1431768536567</v>
       </c>
       <c r="AB21">
-        <v>21.591096715082699</v>
+        <v>24.3166279569196</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>44</v>
+      <c r="A22" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:B23" si="94">(E22+H22)/2</f>
-        <v>0</v>
+        <f t="shared" ref="B22" si="85">(E22+H22)/2</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" ref="C22:C23" si="95">(F22+I22)/2</f>
-        <v>14.505219906568467</v>
+        <f t="shared" ref="C22" si="86">(F22+I22)/2</f>
+        <v>23.710527668396598</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" ref="D22:D23" si="96">(G22+J22)/2</f>
-        <v>18.091989977035485</v>
+        <f t="shared" ref="D22" si="87">(G22+J22)/2</f>
+        <v>83.048045491060634</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E23" si="97">(K22+N22+Q22)/3</f>
-        <v>0</v>
+        <f t="shared" ref="E22" si="88">(K22+N22+Q22)/3</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F23" si="98">(L22+O22+R22)/3</f>
-        <v>12.863241195678667</v>
+        <f t="shared" ref="F22" si="89">(L22+O22+R22)/3</f>
+        <v>23.3840361833572</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G23" si="99">(M22+P22+S22)/3</f>
-        <v>15.3951782672949</v>
+        <f t="shared" ref="G22" si="90">(M22+P22+S22)/3</f>
+        <v>83.187636415438689</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="100">(T22+W22+Z22)/3</f>
-        <v>0</v>
+        <f t="shared" ref="H22" si="91">(T22+W22+Z22)/3</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="101">(U22+X22+AA22)/3</f>
-        <v>16.147198617458265</v>
+        <f t="shared" ref="I22" si="92">(U22+X22+AA22)/3</f>
+        <v>24.037019153435995</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J23" si="102">(V22+Y22+AB22)/3</f>
-        <v>20.788801686776068</v>
+        <f t="shared" ref="J22" si="93">(V22+Y22+AB22)/3</f>
+        <v>82.908454566682565</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>12.5657751560211</v>
+        <v>23.400462925434098</v>
       </c>
       <c r="M22">
-        <v>15.3062028157262</v>
+        <v>84.534328886317894</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>12.6883382797241</v>
+        <v>23.465559780597602</v>
       </c>
       <c r="P22">
-        <v>14.5019327833588</v>
+        <v>84.108858751587505</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>13.335610151290799</v>
+        <v>23.286085844039899</v>
       </c>
       <c r="S22">
-        <v>16.377399202799701</v>
+        <v>80.919721608410697</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U22">
-        <v>18.167833626270198</v>
+        <v>24.095977485179901</v>
       </c>
       <c r="V22">
-        <v>13.4087535110377</v>
+        <v>80.636437391806695</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>15.095551729202199</v>
+        <v>23.878830254077901</v>
       </c>
       <c r="Y22">
-        <v>19.889569502444999</v>
+        <v>84.579919944815202</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>15.1782104969024</v>
+        <v>24.136249721050199</v>
       </c>
       <c r="AB22">
-        <v>29.0680820468455</v>
+        <v>83.509006363425797</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>43</v>
+      <c r="A23" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" si="94"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" ref="B23" si="94">(E23+H23)/2</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" si="95"/>
-        <v>13.10261040925975</v>
+        <f t="shared" ref="C23" si="95">(F23+I23)/2</f>
+        <v>28.253571649392399</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="96"/>
-        <v>26.267735222085953</v>
+        <f t="shared" ref="D23" si="96">(G23+J23)/2</f>
+        <v>24.328894134402404</v>
       </c>
       <c r="E23">
-        <f t="shared" si="97"/>
-        <v>0.73333333333333339</v>
+        <f t="shared" ref="E23" si="97">(K23+N23+Q23)/3</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F23">
-        <f t="shared" si="98"/>
-        <v>12.345974663893335</v>
+        <f t="shared" ref="F23" si="98">(L23+O23+R23)/3</f>
+        <v>27.555681546529101</v>
       </c>
       <c r="G23">
-        <f t="shared" si="99"/>
-        <v>26.6513715031118</v>
+        <f t="shared" ref="G23" si="99">(M23+P23+S23)/3</f>
+        <v>24.429171104932035</v>
       </c>
       <c r="H23">
-        <f t="shared" si="100"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="H23" si="100">(T23+W23+Z23)/3</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I23">
-        <f t="shared" si="101"/>
-        <v>13.859246154626165</v>
+        <f t="shared" ref="I23" si="101">(U23+X23+AA23)/3</f>
+        <v>28.9514617522557</v>
       </c>
       <c r="J23">
-        <f t="shared" si="102"/>
-        <v>25.884098941060103</v>
+        <f t="shared" ref="J23" si="102">(V23+Y23+AB23)/3</f>
+        <v>24.228617163872769</v>
       </c>
       <c r="K23">
         <v>0.8</v>
       </c>
       <c r="L23">
-        <v>12.1342772841453</v>
+        <v>27.953351855278001</v>
       </c>
       <c r="M23">
-        <v>25.8647977079276</v>
+        <v>24.995768119916399</v>
       </c>
       <c r="N23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>12.166121006011901</v>
+        <v>26.2293851971626</v>
       </c>
       <c r="P23">
-        <v>27.606587088167799</v>
+        <v>23.631970382321999</v>
       </c>
       <c r="Q23">
         <v>0.8</v>
       </c>
       <c r="R23">
-        <v>12.737525701522801</v>
+        <v>28.484307587146699</v>
       </c>
       <c r="S23">
-        <v>26.482729713240001</v>
+        <v>24.6597748125577</v>
       </c>
       <c r="T23">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="U23">
-        <v>13.6452530622482</v>
+        <v>29.282195568084699</v>
       </c>
       <c r="V23">
-        <v>26.405532009994399</v>
+        <v>24.4957581751313</v>
       </c>
       <c r="W23">
         <v>0.8</v>
       </c>
       <c r="X23">
-        <v>13.789308547973601</v>
+        <v>28.576601803302701</v>
       </c>
       <c r="Y23">
-        <v>26.930136856266301</v>
+        <v>24.409804179345301</v>
       </c>
       <c r="Z23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>14.1431768536567</v>
+        <v>28.995587885379699</v>
       </c>
       <c r="AB23">
-        <v>24.3166279569196</v>
+        <v>23.7802891371417</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>45</v>
+      <c r="A24" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" ref="B24" si="103">(E24+H24)/2</f>
-        <v>0.89999999999999991</v>
+        <v>0.96666666666666656</v>
       </c>
       <c r="C24" s="10">
         <f t="shared" ref="C24" si="104">(F24+I24)/2</f>
-        <v>23.710527668396598</v>
+        <v>10.031219770510951</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" ref="D24" si="105">(G24+J24)/2</f>
-        <v>83.048045491060634</v>
+        <v>15.415410316756148</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24" si="106">(K24+N24+Q24)/3</f>
@@ -2861,372 +2853,182 @@
       </c>
       <c r="F24">
         <f t="shared" ref="F24" si="107">(L24+O24+R24)/3</f>
-        <v>23.3840361833572</v>
+        <v>10.055379966894749</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="108">(M24+P24+S24)/3</f>
-        <v>83.187636415438689</v>
+        <v>15.479501844680833</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24" si="109">(T24+W24+Z24)/3</f>
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24" si="110">(U24+X24+AA24)/3</f>
-        <v>24.037019153435995</v>
+        <v>10.007059574127155</v>
       </c>
       <c r="J24">
         <f t="shared" ref="J24" si="111">(V24+Y24+AB24)/3</f>
-        <v>82.908454566682565</v>
+        <v>15.351318788831465</v>
       </c>
       <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>10.056697070598601</v>
+      </c>
+      <c r="M24">
+        <v>15.6336833110188</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>9.9979093074798495</v>
+      </c>
+      <c r="P24">
+        <v>15.4650489886705</v>
+      </c>
+      <c r="Q24">
         <v>0.8</v>
       </c>
-      <c r="L24">
-        <v>23.400462925434098</v>
-      </c>
-      <c r="M24">
-        <v>84.534328886317894</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>23.465559780597602</v>
-      </c>
-      <c r="P24">
-        <v>84.108858751587505</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>23.286085844039899</v>
+        <v>10.1115335226058</v>
       </c>
       <c r="S24">
-        <v>80.919721608410697</v>
+        <v>15.339773234353199</v>
       </c>
       <c r="T24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>24.095977485179901</v>
+        <v>10.011250138282699</v>
       </c>
       <c r="V24">
-        <v>80.636437391806695</v>
+        <v>15.0523643941951</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>23.878830254077901</v>
+        <v>10.0370129346847</v>
       </c>
       <c r="Y24">
-        <v>84.579919944815202</v>
+        <v>15.0996697599216</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>24.136249721050199</v>
+        <v>9.9729156494140607</v>
       </c>
       <c r="AB24">
-        <v>83.509006363425797</v>
+        <v>15.9019222123777</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>46</v>
+      <c r="A25" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" ref="B25" si="112">(E25+H25)/2</f>
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25" si="113">(F25+I25)/2</f>
-        <v>28.253571649392399</v>
+        <v>11.130385418732917</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" ref="D25" si="114">(G25+J25)/2</f>
-        <v>24.328894134402404</v>
+        <v>15.737520861802617</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25" si="115">(K25+N25+Q25)/3</f>
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25" si="116">(L25+O25+R25)/3</f>
-        <v>27.555681546529101</v>
+        <v>10.427733719348867</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="117">(M25+P25+S25)/3</f>
-        <v>24.429171104932035</v>
+        <v>15.224439942233566</v>
       </c>
       <c r="H25">
         <f t="shared" ref="H25" si="118">(T25+W25+Z25)/3</f>
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25" si="119">(U25+X25+AA25)/3</f>
-        <v>28.9514617522557</v>
+        <v>11.833037118116968</v>
       </c>
       <c r="J25">
         <f t="shared" ref="J25" si="120">(V25+Y25+AB25)/3</f>
-        <v>24.228617163872769</v>
+        <v>16.250601781371667</v>
       </c>
       <c r="K25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>27.953351855278001</v>
+        <v>10.474620878696401</v>
       </c>
       <c r="M25">
-        <v>24.995768119916399</v>
+        <v>15.166229827715</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>26.2293851971626</v>
+        <v>10.4480928778648</v>
       </c>
       <c r="P25">
-        <v>23.631970382321999</v>
+        <v>15.1829594150083</v>
       </c>
       <c r="Q25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>28.484307587146699</v>
+        <v>10.3604874014854</v>
       </c>
       <c r="S25">
-        <v>24.6597748125577</v>
+        <v>15.3241305839774</v>
       </c>
       <c r="T25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>29.282195568084699</v>
+        <v>13.177230298519101</v>
       </c>
       <c r="V25">
-        <v>24.4957581751313</v>
+        <v>17.181040944891802</v>
       </c>
       <c r="W25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>28.576601803302701</v>
+        <v>11.099819123744901</v>
       </c>
       <c r="Y25">
-        <v>24.409804179345301</v>
+        <v>15.7460111021909</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>28.995587885379699</v>
+        <v>11.2220619320869</v>
       </c>
       <c r="AB25">
-        <v>23.7802891371417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="8">
-        <f t="shared" ref="B26" si="121">(E26+H26)/2</f>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26" si="122">(F26+I26)/2</f>
-        <v>10.031219770510951</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" ref="D26" si="123">(G26+J26)/2</f>
-        <v>15.415410316756148</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26" si="124">(K26+N26+Q26)/3</f>
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26" si="125">(L26+O26+R26)/3</f>
-        <v>10.055379966894749</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26" si="126">(M26+P26+S26)/3</f>
-        <v>15.479501844680833</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26" si="127">(T26+W26+Z26)/3</f>
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26" si="128">(U26+X26+AA26)/3</f>
-        <v>10.007059574127155</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ref="J26" si="129">(V26+Y26+AB26)/3</f>
-        <v>15.351318788831465</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>10.056697070598601</v>
-      </c>
-      <c r="M26">
-        <v>15.6336833110188</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>9.9979093074798495</v>
-      </c>
-      <c r="P26">
-        <v>15.4650489886705</v>
-      </c>
-      <c r="Q26">
-        <v>0.8</v>
-      </c>
-      <c r="R26">
-        <v>10.1115335226058</v>
-      </c>
-      <c r="S26">
-        <v>15.339773234353199</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>10.011250138282699</v>
-      </c>
-      <c r="V26">
-        <v>15.0523643941951</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>10.0370129346847</v>
-      </c>
-      <c r="Y26">
-        <v>15.0996697599216</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>9.9729156494140607</v>
-      </c>
-      <c r="AB26">
-        <v>15.9019222123777</v>
+        <v>15.8247532970323</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="8">
-        <f t="shared" ref="B27" si="130">(E27+H27)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" ref="C27" si="131">(F27+I27)/2</f>
-        <v>11.130385418732917</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" ref="D27" si="132">(G27+J27)/2</f>
-        <v>15.737520861802617</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ref="E27" si="133">(K27+N27+Q27)/3</f>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27" si="134">(L27+O27+R27)/3</f>
-        <v>10.427733719348867</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="135">(M27+P27+S27)/3</f>
-        <v>15.224439942233566</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27" si="136">(T27+W27+Z27)/3</f>
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ref="I27" si="137">(U27+X27+AA27)/3</f>
-        <v>11.833037118116968</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ref="J27" si="138">(V27+Y27+AB27)/3</f>
-        <v>16.250601781371667</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>10.474620878696401</v>
-      </c>
-      <c r="M27">
-        <v>15.166229827715</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>10.4480928778648</v>
-      </c>
-      <c r="P27">
-        <v>15.1829594150083</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>10.3604874014854</v>
-      </c>
-      <c r="S27">
-        <v>15.3241305839774</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>13.177230298519101</v>
-      </c>
-      <c r="V27">
-        <v>17.181040944891802</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>11.099819123744901</v>
-      </c>
-      <c r="Y27">
-        <v>15.7460111021909</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>11.2220619320869</v>
-      </c>
-      <c r="AB27">
-        <v>15.8247532970323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D28:D1048576 D1:D19">
+  <conditionalFormatting sqref="D26:D1048576 D1:D17">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3238,7 +3040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C1048576 C1:C19">
+  <conditionalFormatting sqref="C26:C1048576 C1:C17">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3250,7 +3052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B1048576 B1:B19">
+  <conditionalFormatting sqref="B26:B1048576 B1:B17">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3262,7 +3064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C1048576">
+  <conditionalFormatting sqref="C26:C1048576">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -3274,7 +3076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D1048576">
+  <conditionalFormatting sqref="D26:D1048576">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3286,7 +3088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B1048576">
+  <conditionalFormatting sqref="B26:B1048576">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3298,7 +3100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C1048576 C1:C23">
+  <conditionalFormatting sqref="C26:C1048576 C1:C21">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3310,7 +3112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D1048576 D1:D23">
+  <conditionalFormatting sqref="D26:D1048576 D1:D21">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3322,7 +3124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D27">
+  <conditionalFormatting sqref="D22:D25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3334,7 +3136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C27">
+  <conditionalFormatting sqref="C22:C25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3346,7 +3148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
+  <conditionalFormatting sqref="B22:B25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3358,7 +3160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C27">
+  <conditionalFormatting sqref="C22:C25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3370,7 +3172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D27">
+  <conditionalFormatting sqref="D22:D25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3382,7 +3184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
+  <conditionalFormatting sqref="B22:B25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3394,7 +3196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C27">
+  <conditionalFormatting sqref="C22:C25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3406,7 +3208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D27">
+  <conditionalFormatting sqref="D22:D25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3418,7 +3220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D23">
+  <conditionalFormatting sqref="D18:D21">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3430,7 +3232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C23">
+  <conditionalFormatting sqref="C18:C21">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -3442,7 +3244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B23">
+  <conditionalFormatting sqref="B18:B21">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>

--- a/128k_v1_data/benchmark_128k_detail_result.xlsx
+++ b/128k_v1_data/benchmark_128k_detail_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\long_context_llm_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388356A1-113B-405C-A7E0-EAEFE24AE311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41D24F-FE6F-4672-AC06-87B8C4DE3616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="870" windowWidth="25515" windowHeight="14625" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
+    <workbookView xWindow="29760" yWindow="600" windowWidth="25515" windowHeight="14625" xr2:uid="{EA6EBBEB-3CFA-48C1-A157-94902667BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>模型名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -216,14 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deepseek-chat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepseek-coder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gpt-4o-2024-05-13</t>
   </si>
   <si>
@@ -232,6 +224,58 @@
   </si>
   <si>
     <t>gpt-4o-mini-2024-07-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Llama 3.1 70B (vllm FP8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistral-large-2407</t>
+  </si>
+  <si>
+    <t>qwen-plus-0806</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jamba-1-5-large</t>
+  </si>
+  <si>
+    <t>jamba-1-5-mini</t>
+  </si>
+  <si>
+    <t>glm-4-plus</t>
+  </si>
+  <si>
+    <t>deepseek-chat</t>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwen2-72b-instruct</t>
+  </si>
+  <si>
+    <t>SenseChat-128K</t>
+  </si>
+  <si>
+    <t>风控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glm-4-long</t>
+  </si>
+  <si>
+    <t>Doubao-pro-128k-240628</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command-r-plus-08-2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command-r-08-2024</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -347,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +445,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,10 +767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F31D32-139F-4AD6-897B-A551476427E9}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1080,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8">
         <f>(E4+H4)/2</f>
@@ -1118,7 +1175,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8">
         <f>(E5+H5)/2</f>
@@ -1403,7 +1460,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" ref="B8" si="36">(E8+H8)/2</f>
@@ -2452,584 +2509,1823 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>44</v>
+      <c r="A20" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" ref="B20:B21" si="76">(E20+H20)/2</f>
-        <v>0</v>
+        <f t="shared" ref="B20" si="76">(E20+H20)/2</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" ref="C20:C21" si="77">(F20+I20)/2</f>
-        <v>14.505219906568467</v>
+        <f t="shared" ref="C20" si="77">(F20+I20)/2</f>
+        <v>13.10261040925975</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20:D21" si="78">(G20+J20)/2</f>
-        <v>18.091989977035485</v>
+        <f t="shared" ref="D20" si="78">(G20+J20)/2</f>
+        <v>26.267735222085953</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E21" si="79">(K20+N20+Q20)/3</f>
-        <v>0</v>
+        <f t="shared" ref="E20" si="79">(K20+N20+Q20)/3</f>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F21" si="80">(L20+O20+R20)/3</f>
-        <v>12.863241195678667</v>
+        <f t="shared" ref="F20" si="80">(L20+O20+R20)/3</f>
+        <v>12.345974663893335</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G21" si="81">(M20+P20+S20)/3</f>
-        <v>15.3951782672949</v>
+        <f t="shared" ref="G20" si="81">(M20+P20+S20)/3</f>
+        <v>26.6513715031118</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="82">(T20+W20+Z20)/3</f>
-        <v>0</v>
+        <f t="shared" ref="H20" si="82">(T20+W20+Z20)/3</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="83">(U20+X20+AA20)/3</f>
-        <v>16.147198617458265</v>
+        <f t="shared" ref="I20" si="83">(U20+X20+AA20)/3</f>
+        <v>13.859246154626165</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J21" si="84">(V20+Y20+AB20)/3</f>
-        <v>20.788801686776068</v>
+        <f t="shared" ref="J20" si="84">(V20+Y20+AB20)/3</f>
+        <v>25.884098941060103</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>12.5657751560211</v>
+        <v>12.1342772841453</v>
       </c>
       <c r="M20">
-        <v>15.3062028157262</v>
+        <v>25.8647977079276</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O20">
-        <v>12.6883382797241</v>
+        <v>12.166121006011901</v>
       </c>
       <c r="P20">
-        <v>14.5019327833588</v>
+        <v>27.606587088167799</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R20">
-        <v>13.335610151290799</v>
+        <v>12.737525701522801</v>
       </c>
       <c r="S20">
-        <v>16.377399202799701</v>
+        <v>26.482729713240001</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U20">
-        <v>18.167833626270198</v>
+        <v>13.6452530622482</v>
       </c>
       <c r="V20">
-        <v>13.4087535110377</v>
+        <v>26.405532009994399</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X20">
-        <v>15.095551729202199</v>
+        <v>13.789308547973601</v>
       </c>
       <c r="Y20">
-        <v>19.889569502444999</v>
+        <v>26.930136856266301</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA20">
-        <v>15.1782104969024</v>
+        <v>14.1431768536567</v>
       </c>
       <c r="AB20">
-        <v>29.0680820468455</v>
+        <v>24.3166279569196</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>43</v>
+      <c r="A21" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="8">
-        <f t="shared" si="76"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" ref="B21" si="85">(E21+H21)/2</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" si="77"/>
-        <v>13.10261040925975</v>
+        <f t="shared" ref="C21" si="86">(F21+I21)/2</f>
+        <v>23.710527668396598</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="78"/>
-        <v>26.267735222085953</v>
+        <f t="shared" ref="D21" si="87">(G21+J21)/2</f>
+        <v>83.048045491060634</v>
       </c>
       <c r="E21">
-        <f t="shared" si="79"/>
-        <v>0.73333333333333339</v>
+        <f t="shared" ref="E21" si="88">(K21+N21+Q21)/3</f>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F21">
-        <f t="shared" si="80"/>
-        <v>12.345974663893335</v>
+        <f t="shared" ref="F21" si="89">(L21+O21+R21)/3</f>
+        <v>23.3840361833572</v>
       </c>
       <c r="G21">
-        <f t="shared" si="81"/>
-        <v>26.6513715031118</v>
+        <f t="shared" ref="G21" si="90">(M21+P21+S21)/3</f>
+        <v>83.187636415438689</v>
       </c>
       <c r="H21">
-        <f t="shared" si="82"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="H21" si="91">(T21+W21+Z21)/3</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I21">
-        <f t="shared" si="83"/>
-        <v>13.859246154626165</v>
+        <f t="shared" ref="I21" si="92">(U21+X21+AA21)/3</f>
+        <v>24.037019153435995</v>
       </c>
       <c r="J21">
-        <f t="shared" si="84"/>
-        <v>25.884098941060103</v>
+        <f t="shared" ref="J21" si="93">(V21+Y21+AB21)/3</f>
+        <v>82.908454566682565</v>
       </c>
       <c r="K21">
         <v>0.8</v>
       </c>
       <c r="L21">
-        <v>12.1342772841453</v>
+        <v>23.400462925434098</v>
       </c>
       <c r="M21">
-        <v>25.8647977079276</v>
+        <v>84.534328886317894</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>23.465559780597602</v>
+      </c>
+      <c r="P21">
+        <v>84.108858751587505</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>23.286085844039899</v>
+      </c>
+      <c r="S21">
+        <v>80.919721608410697</v>
+      </c>
+      <c r="T21">
         <v>0.6</v>
       </c>
-      <c r="O21">
-        <v>12.166121006011901</v>
-      </c>
-      <c r="P21">
-        <v>27.606587088167799</v>
-      </c>
-      <c r="Q21">
-        <v>0.8</v>
-      </c>
-      <c r="R21">
-        <v>12.737525701522801</v>
-      </c>
-      <c r="S21">
-        <v>26.482729713240001</v>
-      </c>
-      <c r="T21">
-        <v>0.4</v>
-      </c>
       <c r="U21">
-        <v>13.6452530622482</v>
+        <v>24.095977485179901</v>
       </c>
       <c r="V21">
-        <v>26.405532009994399</v>
+        <v>80.636437391806695</v>
       </c>
       <c r="W21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>13.789308547973601</v>
+        <v>23.878830254077901</v>
       </c>
       <c r="Y21">
-        <v>26.930136856266301</v>
+        <v>84.579919944815202</v>
       </c>
       <c r="Z21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>14.1431768536567</v>
+        <v>24.136249721050199</v>
       </c>
       <c r="AB21">
-        <v>24.3166279569196</v>
+        <v>83.509006363425797</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
+      <c r="A22" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22" si="85">(E22+H22)/2</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="B22" si="94">(E22+H22)/2</f>
+        <v>0.83333333333333326</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" ref="C22" si="86">(F22+I22)/2</f>
-        <v>23.710527668396598</v>
+        <f t="shared" ref="C22" si="95">(F22+I22)/2</f>
+        <v>36.827949851751299</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" ref="D22" si="87">(G22+J22)/2</f>
-        <v>83.048045491060634</v>
+        <f t="shared" ref="D22" si="96">(G22+J22)/2</f>
+        <v>21.149517012767134</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="88">(K22+N22+Q22)/3</f>
+        <f t="shared" ref="E22" si="97">(K22+N22+Q22)/3</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22" si="89">(L22+O22+R22)/3</f>
-        <v>23.3840361833572</v>
+        <f t="shared" ref="F22" si="98">(L22+O22+R22)/3</f>
+        <v>35.890462160110467</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="90">(M22+P22+S22)/3</f>
-        <v>83.187636415438689</v>
+        <f t="shared" ref="G22" si="99">(M22+P22+S22)/3</f>
+        <v>21.317932128891133</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="91">(T22+W22+Z22)/3</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="H22" si="100">(T22+W22+Z22)/3</f>
+        <v>0.73333333333333339</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="92">(U22+X22+AA22)/3</f>
-        <v>24.037019153435995</v>
+        <f t="shared" ref="I22" si="101">(U22+X22+AA22)/3</f>
+        <v>37.765437543392132</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="93">(V22+Y22+AB22)/3</f>
-        <v>82.908454566682565</v>
+        <f t="shared" ref="J22" si="102">(V22+Y22+AB22)/3</f>
+        <v>20.981101896643136</v>
       </c>
       <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>34.985038995742798</v>
+      </c>
+      <c r="M22">
+        <v>21.6389036277935</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>36.340810060501099</v>
+      </c>
+      <c r="P22">
+        <v>22.7420128985103</v>
+      </c>
+      <c r="Q22">
         <v>0.8</v>
       </c>
-      <c r="L22">
-        <v>23.400462925434098</v>
-      </c>
-      <c r="M22">
-        <v>84.534328886317894</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>23.465559780597602</v>
-      </c>
-      <c r="P22">
-        <v>84.108858751587505</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
       <c r="R22">
-        <v>23.286085844039899</v>
+        <v>36.345537424087503</v>
       </c>
       <c r="S22">
-        <v>80.919721608410697</v>
+        <v>19.5728798603696</v>
       </c>
       <c r="T22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>24.095977485179901</v>
+        <v>35.360508382320397</v>
       </c>
       <c r="V22">
-        <v>80.636437391806695</v>
+        <v>22.390896793533901</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
-        <v>23.878830254077901</v>
+        <v>37.559112906455901</v>
       </c>
       <c r="Y22">
-        <v>84.579919944815202</v>
+        <v>21.9380523741013</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA22">
-        <v>24.136249721050199</v>
+        <v>40.376691341400097</v>
       </c>
       <c r="AB22">
-        <v>83.509006363425797</v>
+        <v>18.614356522294202</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>46</v>
+      <c r="A23" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23" si="94">(E23+H23)/2</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="B23" si="103">(E23+H23)/2</f>
+        <v>0.73333333333333339</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23" si="95">(F23+I23)/2</f>
-        <v>28.253571649392399</v>
+        <f t="shared" ref="C23" si="104">(F23+I23)/2</f>
+        <v>97.590564181407245</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" ref="D23" si="96">(G23+J23)/2</f>
-        <v>24.328894134402404</v>
+        <f t="shared" ref="D23" si="105">(G23+J23)/2</f>
+        <v>18.429661611594501</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="97">(K23+N23+Q23)/3</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="E23" si="106">(K23+N23+Q23)/3</f>
+        <v>0.80000000000000016</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23" si="98">(L23+O23+R23)/3</f>
-        <v>27.555681546529101</v>
+        <f t="shared" ref="F23" si="107">(L23+O23+R23)/3</f>
+        <v>95.625164469083117</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="99">(M23+P23+S23)/3</f>
-        <v>24.429171104932035</v>
+        <f t="shared" ref="G23" si="108">(M23+P23+S23)/3</f>
+        <v>18.599634144651933</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23" si="100">(T23+W23+Z23)/3</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="H23" si="109">(T23+W23+Z23)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="101">(U23+X23+AA23)/3</f>
-        <v>28.9514617522557</v>
+        <f t="shared" ref="I23" si="110">(U23+X23+AA23)/3</f>
+        <v>99.555963893731359</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="102">(V23+Y23+AB23)/3</f>
-        <v>24.228617163872769</v>
+        <f t="shared" ref="J23" si="111">(V23+Y23+AB23)/3</f>
+        <v>18.259689078537068</v>
       </c>
       <c r="K23">
         <v>0.8</v>
       </c>
       <c r="L23">
-        <v>27.953351855278001</v>
+        <v>95.605639278888702</v>
       </c>
       <c r="M23">
-        <v>24.995768119916399</v>
+        <v>18.757325384857399</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O23">
-        <v>26.2293851971626</v>
+        <v>95.626047074794698</v>
       </c>
       <c r="P23">
-        <v>23.631970382321999</v>
+        <v>18.808115044822301</v>
       </c>
       <c r="Q23">
         <v>0.8</v>
       </c>
       <c r="R23">
-        <v>28.484307587146699</v>
+        <v>95.643807053565894</v>
       </c>
       <c r="S23">
-        <v>24.6597748125577</v>
+        <v>18.233462004276099</v>
       </c>
       <c r="T23">
         <v>0.8</v>
       </c>
       <c r="U23">
-        <v>29.282195568084699</v>
+        <v>99.402033567428504</v>
       </c>
       <c r="V23">
-        <v>24.4957581751313</v>
+        <v>18.466868339233798</v>
       </c>
       <c r="W23">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="X23">
-        <v>28.576601803302701</v>
+        <v>99.585913717746706</v>
       </c>
       <c r="Y23">
-        <v>24.409804179345301</v>
+        <v>18.858334917128399</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AA23">
-        <v>28.995587885379699</v>
+        <v>99.679944396018897</v>
       </c>
       <c r="AB23">
-        <v>23.7802891371417</v>
+        <v>17.453863979249</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>48</v>
+      <c r="A24" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24" si="103">(E24+H24)/2</f>
-        <v>0.96666666666666656</v>
+        <f t="shared" ref="B24" si="112">(E24+H24)/2</f>
+        <v>0</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24" si="104">(F24+I24)/2</f>
-        <v>10.031219770510951</v>
+        <f t="shared" ref="C24" si="113">(F24+I24)/2</f>
+        <v>14.049490928649849</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" ref="D24" si="105">(G24+J24)/2</f>
-        <v>15.415410316756148</v>
+        <f t="shared" ref="D24" si="114">(G24+J24)/2</f>
+        <v>18.563061282128032</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="106">(K24+N24+Q24)/3</f>
-        <v>0.93333333333333324</v>
+        <f t="shared" ref="E24" si="115">(K24+N24+Q24)/3</f>
+        <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="107">(L24+O24+R24)/3</f>
-        <v>10.055379966894749</v>
+        <f t="shared" ref="F24" si="116">(L24+O24+R24)/3</f>
+        <v>14.098291516303966</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="108">(M24+P24+S24)/3</f>
-        <v>15.479501844680833</v>
+        <f t="shared" ref="G24" si="117">(M24+P24+S24)/3</f>
+        <v>18.396905954268135</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="109">(T24+W24+Z24)/3</f>
-        <v>1</v>
+        <f t="shared" ref="H24" si="118">(T24+W24+Z24)/3</f>
+        <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="110">(U24+X24+AA24)/3</f>
-        <v>10.007059574127155</v>
+        <f t="shared" ref="I24" si="119">(U24+X24+AA24)/3</f>
+        <v>14.000690340995734</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="111">(V24+Y24+AB24)/3</f>
-        <v>15.351318788831465</v>
+        <f t="shared" ref="J24" si="120">(V24+Y24+AB24)/3</f>
+        <v>18.729216609987933</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.056697070598601</v>
+        <v>13.9203826785087</v>
       </c>
       <c r="M24">
-        <v>15.6336833110188</v>
+        <v>18.617052975175799</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>9.9979093074798495</v>
+        <v>14.018404066562599</v>
       </c>
       <c r="P24">
-        <v>15.4650489886705</v>
+        <v>17.698797468574501</v>
       </c>
       <c r="Q24">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>10.1115335226058</v>
+        <v>14.3560878038406</v>
       </c>
       <c r="S24">
-        <v>15.339773234353199</v>
+        <v>18.874867419054102</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>10.011250138282699</v>
+        <v>13.8541410565376</v>
       </c>
       <c r="V24">
-        <v>15.0523643941951</v>
+        <v>18.659658546360699</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>10.0370129346847</v>
+        <v>13.8013159632682</v>
       </c>
       <c r="Y24">
-        <v>15.0996697599216</v>
+        <v>19.248844515368599</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>9.9729156494140607</v>
+        <v>14.346614003181401</v>
       </c>
       <c r="AB24">
-        <v>15.9019222123777</v>
+        <v>18.279146768234501</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>49</v>
+      <c r="A25" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" ref="B25" si="112">(E25+H25)/2</f>
+        <f t="shared" ref="B25" si="121">(E25+H25)/2</f>
         <v>1</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25" si="113">(F25+I25)/2</f>
-        <v>11.130385418732917</v>
+        <f t="shared" ref="C25" si="122">(F25+I25)/2</f>
+        <v>79.44961520036054</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" ref="D25" si="114">(G25+J25)/2</f>
-        <v>15.737520861802617</v>
+        <f t="shared" ref="D25" si="123">(G25+J25)/2</f>
+        <v>22.450122719100833</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="115">(K25+N25+Q25)/3</f>
+        <f t="shared" ref="E25" si="124">(K25+N25+Q25)/3</f>
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="116">(L25+O25+R25)/3</f>
-        <v>10.427733719348867</v>
+        <f t="shared" ref="F25" si="125">(L25+O25+R25)/3</f>
+        <v>78.723485509554465</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="117">(M25+P25+S25)/3</f>
-        <v>15.224439942233566</v>
+        <f t="shared" ref="G25" si="126">(M25+P25+S25)/3</f>
+        <v>22.336590431596566</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="118">(T25+W25+Z25)/3</f>
+        <f t="shared" ref="H25" si="127">(T25+W25+Z25)/3</f>
         <v>1</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="119">(U25+X25+AA25)/3</f>
-        <v>11.833037118116968</v>
+        <f t="shared" ref="I25" si="128">(U25+X25+AA25)/3</f>
+        <v>80.175744891166602</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="120">(V25+Y25+AB25)/3</f>
-        <v>16.250601781371667</v>
+        <f t="shared" ref="J25" si="129">(V25+Y25+AB25)/3</f>
+        <v>22.563655006605099</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>10.474620878696401</v>
+        <v>78.557487249374304</v>
       </c>
       <c r="M25">
-        <v>15.166229827715</v>
+        <v>22.3663824548075</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>10.4480928778648</v>
+        <v>79.823463916778493</v>
       </c>
       <c r="P25">
-        <v>15.1829594150083</v>
+        <v>22.262718627955199</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25">
-        <v>10.3604874014854</v>
+        <v>77.789505362510596</v>
       </c>
       <c r="S25">
-        <v>15.3241305839774</v>
+        <v>22.380670212026999</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>13.177230298519101</v>
+        <v>79.182825505733405</v>
       </c>
       <c r="V25">
-        <v>17.181040944891802</v>
+        <v>22.492070484815098</v>
       </c>
       <c r="W25">
         <v>1</v>
       </c>
       <c r="X25">
-        <v>11.099819123744901</v>
+        <v>81.567157030105506</v>
       </c>
       <c r="Y25">
-        <v>15.7460111021909</v>
+        <v>22.557835587161801</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>11.2220619320869</v>
+        <v>79.777252137660895</v>
       </c>
       <c r="AB25">
-        <v>15.8247532970323</v>
+        <v>22.641058947838399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26" si="130">(E26+H26)/2</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26" si="131">(F26+I26)/2</f>
+        <v>16.664888789256366</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26" si="132">(G26+J26)/2</f>
+        <v>26.115188109648102</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="133">(K26+N26+Q26)/3</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="134">(L26+O26+R26)/3</f>
+        <v>16.214304566383333</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="135">(M26+P26+S26)/3</f>
+        <v>33.610377637822502</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="136">(T26+W26+Z26)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="137">(U26+X26+AA26)/3</f>
+        <v>17.115473012129399</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="138">(V26+Y26+AB26)/3</f>
+        <v>18.619998581473698</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>16.199806034564901</v>
+      </c>
+      <c r="M26">
+        <v>34.749498002548599</v>
+      </c>
+      <c r="N26">
+        <v>0.4</v>
+      </c>
+      <c r="O26">
+        <v>16.285552024841301</v>
+      </c>
+      <c r="P26">
+        <v>36.761186139181603</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>16.157555639743801</v>
+      </c>
+      <c r="S26">
+        <v>29.320448771737301</v>
+      </c>
+      <c r="T26">
+        <v>0.4</v>
+      </c>
+      <c r="U26">
+        <v>17.675538003444601</v>
+      </c>
+      <c r="V26">
+        <v>11.2377082521734</v>
+      </c>
+      <c r="W26">
+        <v>0.8</v>
+      </c>
+      <c r="X26">
+        <v>16.838115394115398</v>
+      </c>
+      <c r="Y26">
+        <v>26.775054114971802</v>
+      </c>
+      <c r="Z26">
+        <v>0.8</v>
+      </c>
+      <c r="AA26">
+        <v>16.832765638828199</v>
+      </c>
+      <c r="AB26">
+        <v>17.847233377275899</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" ref="B27" si="139">(E27+H27)/2</f>
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27" si="140">(F27+I27)/2</f>
+        <v>3.211472382148103</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27" si="141">(G27+J27)/2</f>
+        <v>129.64941315619566</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="142">(K27+N27+Q27)/3</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="143">(L27+O27+R27)/3</f>
+        <v>3.2863180637359566</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="144">(M27+P27+S27)/3</f>
+        <v>124.22603264136801</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="145">(T27+W27+Z27)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="146">(U27+X27+AA27)/3</f>
+        <v>3.1366267005602499</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="147">(V27+Y27+AB27)/3</f>
+        <v>135.07279367102333</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>3.3454804420471098</v>
+      </c>
+      <c r="M27">
+        <v>145.52625661364101</v>
+      </c>
+      <c r="N27">
+        <v>0.6</v>
+      </c>
+      <c r="O27">
+        <v>3.3275009989738402</v>
+      </c>
+      <c r="P27">
+        <v>103.611542011042</v>
+      </c>
+      <c r="Q27">
+        <v>0.4</v>
+      </c>
+      <c r="R27">
+        <v>3.1859727501869202</v>
+      </c>
+      <c r="S27">
+        <v>123.54029929942099</v>
+      </c>
+      <c r="T27">
+        <v>0.6</v>
+      </c>
+      <c r="U27">
+        <v>3.0815094113349901</v>
+      </c>
+      <c r="V27">
+        <v>137.454310689339</v>
+      </c>
+      <c r="W27">
+        <v>0.6</v>
+      </c>
+      <c r="X27">
+        <v>3.26352387666702</v>
+      </c>
+      <c r="Y27">
+        <v>131.92376236777301</v>
+      </c>
+      <c r="Z27">
+        <v>0.8</v>
+      </c>
+      <c r="AA27">
+        <v>3.0648468136787401</v>
+      </c>
+      <c r="AB27">
+        <v>135.840307955958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" ref="B28" si="148">(E28+H28)/2</f>
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28" si="149">(F28+I28)/2</f>
+        <v>52.321984748045566</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28" si="150">(G28+J28)/2</f>
+        <v>26.465634801590085</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="151">(K28+N28+Q28)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="152">(L28+O28+R28)/3</f>
+        <v>51.10007750988003</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="153">(M28+P28+S28)/3</f>
+        <v>27.155143402288868</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="154">(T28+W28+Z28)/3</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="155">(U28+X28+AA28)/3</f>
+        <v>53.543891986211101</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="156">(V28+Y28+AB28)/3</f>
+        <v>25.776126200891298</v>
+      </c>
+      <c r="K28">
+        <v>0.8</v>
+      </c>
+      <c r="L28">
+        <v>50.842748045921297</v>
+      </c>
+      <c r="M28">
+        <v>27.267724697257002</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>51.276279389858203</v>
+      </c>
+      <c r="P28">
+        <v>27.3056333450069</v>
+      </c>
+      <c r="Q28">
+        <v>0.8</v>
+      </c>
+      <c r="R28">
+        <v>51.181205093860598</v>
+      </c>
+      <c r="S28">
+        <v>26.892072164602698</v>
+      </c>
+      <c r="T28">
+        <v>0.8</v>
+      </c>
+      <c r="U28">
+        <v>55.710811853408799</v>
+      </c>
+      <c r="V28">
+        <v>26.660673656127599</v>
+      </c>
+      <c r="W28">
+        <v>0.6</v>
+      </c>
+      <c r="X28">
+        <v>52.741321384906698</v>
+      </c>
+      <c r="Y28">
+        <v>25.098546019999901</v>
+      </c>
+      <c r="Z28">
+        <v>0.8</v>
+      </c>
+      <c r="AA28">
+        <v>52.179542720317798</v>
+      </c>
+      <c r="AB28">
+        <v>25.5691589265464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" ref="B29:B31" si="157">(E29+H29)/2</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C29" s="10" t="e">
+        <f t="shared" ref="C29:C31" si="158">(F29+I29)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" ref="D29:D31" si="159">(G29+J29)/2</f>
+        <v>17.402879534445166</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E31" si="160">(K29+N29+Q29)/3</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" ref="F29:F31" si="161">(L29+O29+R29)/3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G31" si="162">(M29+P29+S29)/3</f>
+        <v>17.444909391474699</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H31" si="163">(T29+W29+Z29)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I31" si="164">(U29+X29+AA29)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J31" si="165">(V29+Y29+AB29)/3</f>
+        <v>17.360849677415633</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29">
+        <v>17.3910021745879</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>17.526754163127599</v>
+      </c>
+      <c r="Q29">
+        <v>0.8</v>
+      </c>
+      <c r="S29">
+        <v>17.416971836708601</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>17.386422112436701</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>17.178050959567202</v>
+      </c>
+      <c r="Z29">
+        <v>0.6</v>
+      </c>
+      <c r="AB29">
+        <v>17.518075960242999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="157"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="10" t="e">
+        <f t="shared" si="158"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="159"/>
+        <v>44.881468033755738</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="160"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F30" t="e">
+        <f t="shared" si="161"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="162"/>
+        <v>45.137926983891639</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="163"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="165"/>
+        <v>44.62500908361983</v>
+      </c>
+      <c r="K30">
+        <v>0.8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30">
+        <v>51.279345956398899</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>49.415477337852799</v>
+      </c>
+      <c r="Q30">
+        <v>0.6</v>
+      </c>
+      <c r="S30">
+        <v>34.718957657423204</v>
+      </c>
+      <c r="T30">
+        <v>0.4</v>
+      </c>
+      <c r="V30">
+        <v>48.374810772992198</v>
+      </c>
+      <c r="W30">
+        <v>0.4</v>
+      </c>
+      <c r="Y30">
+        <v>45.416364410509097</v>
+      </c>
+      <c r="Z30">
+        <v>0.8</v>
+      </c>
+      <c r="AB30">
+        <v>40.083852067358201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="157"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="158"/>
+        <v>92.655654778083118</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="159"/>
+        <v>8.213021156170754</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="160"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="161"/>
+        <v>93.753004431724506</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="162"/>
+        <v>8.2702187129552165</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="163"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="164"/>
+        <v>91.558305124441745</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="165"/>
+        <v>8.1558235993862898</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>95.237576365470801</v>
+      </c>
+      <c r="M31">
+        <v>8.01934449889613</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>91.837757647037506</v>
+      </c>
+      <c r="P31">
+        <v>8.65533776061047</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>94.183679282665196</v>
+      </c>
+      <c r="S31">
+        <v>8.1359738793590495</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>98.883319199085193</v>
+      </c>
+      <c r="V31">
+        <v>8.29197443938018</v>
+      </c>
+      <c r="W31">
+        <v>0.8</v>
+      </c>
+      <c r="X31">
+        <v>76.514492332935305</v>
+      </c>
+      <c r="Y31">
+        <v>8.39895361024025</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>99.277103841304694</v>
+      </c>
+      <c r="AB31">
+        <v>7.7765427485384402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E33" si="166">(K32+N32+Q32)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F33" si="167">(L32+O32+R32)/3</f>
+        <v>96.613430579503301</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G33" si="168">(M32+P32+S32)/3</f>
+        <v>18.462752012897699</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32">
+        <v>0.6</v>
+      </c>
+      <c r="L32">
+        <v>96.906495571136404</v>
+      </c>
+      <c r="M32">
+        <v>18.506883648028001</v>
+      </c>
+      <c r="N32">
+        <v>0.8</v>
+      </c>
+      <c r="O32">
+        <v>96.628948032855902</v>
+      </c>
+      <c r="P32">
+        <v>18.4883186997302</v>
+      </c>
+      <c r="Q32">
+        <v>0.6</v>
+      </c>
+      <c r="R32">
+        <v>96.304848134517599</v>
+      </c>
+      <c r="S32">
+        <v>18.393053690934899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" ref="B33" si="169">(E33+H33)/2</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" ref="C33" si="170">(F33+I33)/2</f>
+        <v>14.449451694885834</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" ref="D33" si="171">(G33+J33)/2</f>
+        <v>56.047950118771269</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="166"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="167"/>
+        <v>15.615636547406467</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="168"/>
+        <v>56.56267103816424</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="172">(T33+W33+Z33)/3</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="173">(U33+X33+AA33)/3</f>
+        <v>13.283266842365201</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="174">(V33+Y33+AB33)/3</f>
+        <v>55.533229199378297</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33">
+        <v>16.395789384841901</v>
+      </c>
+      <c r="M33">
+        <v>55.155248033208501</v>
+      </c>
+      <c r="N33">
+        <v>0.6</v>
+      </c>
+      <c r="O33">
+        <v>17.981276690959898</v>
+      </c>
+      <c r="P33">
+        <v>57.321170318781803</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>12.4698435664176</v>
+      </c>
+      <c r="S33">
+        <v>57.211594762502401</v>
+      </c>
+      <c r="T33">
+        <v>0.8</v>
+      </c>
+      <c r="U33">
+        <v>11.5895783901214</v>
+      </c>
+      <c r="V33">
+        <v>54.240558150845203</v>
+      </c>
+      <c r="W33">
+        <v>0.6</v>
+      </c>
+      <c r="X33">
+        <v>14.3868167996406</v>
+      </c>
+      <c r="Y33">
+        <v>56.254537649388297</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>13.873405337333599</v>
+      </c>
+      <c r="AB33">
+        <v>56.104591797901399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" ref="B34" si="175">(E34+H34)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" ref="C34" si="176">(F34+I34)/2</f>
+        <v>10.520867447058318</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34" si="177">(G34+J34)/2</f>
+        <v>33.798522734616334</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="178">(K34+N34+Q34)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="179">(L34+O34+R34)/3</f>
+        <v>9.6929641564687028</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="180">(M34+P34+S34)/3</f>
+        <v>37.308516920103934</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34" si="181">(T34+W34+Z34)/3</f>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34" si="182">(U34+X34+AA34)/3</f>
+        <v>11.348770737647932</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="183">(V34+Y34+AB34)/3</f>
+        <v>30.288528549128731</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>9.6079504489898593</v>
+      </c>
+      <c r="M34">
+        <v>51.608931508350302</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>10.729797840118399</v>
+      </c>
+      <c r="P34">
+        <v>28.868027692485299</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>8.7411441802978498</v>
+      </c>
+      <c r="S34">
+        <v>31.448591559476199</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>11.0480987429618</v>
+      </c>
+      <c r="V34">
+        <v>30.969448694286299</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>11.3676540255546</v>
+      </c>
+      <c r="Y34">
+        <v>30.173132393214399</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>11.6305594444274</v>
+      </c>
+      <c r="AB34">
+        <v>29.723004559885499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" ref="B35" si="184">(E35+H35)/2</f>
+        <v>0.8</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35" si="185">(F35+I35)/2</f>
+        <v>62.584531426429706</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" ref="D35" si="186">(G35+J35)/2</f>
+        <v>10.190626801946919</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="187">(K35+N35+Q35)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="188">(L35+O35+R35)/3</f>
+        <v>60.993453582127835</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35" si="189">(M35+P35+S35)/3</f>
+        <v>10.6188574095005</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35" si="190">(T35+W35+Z35)/3</f>
+        <v>0.6</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35" si="191">(U35+X35+AA35)/3</f>
+        <v>64.17560927073157</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="192">(V35+Y35+AB35)/3</f>
+        <v>9.7623961943933395</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>59.086892426013897</v>
+      </c>
+      <c r="M35">
+        <v>10.305495363682599</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>66.217178463935795</v>
+      </c>
+      <c r="P35">
+        <v>10.5116085171921</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>57.676289856433797</v>
+      </c>
+      <c r="S35">
+        <v>11.0394683476268</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>61.855902493000002</v>
+      </c>
+      <c r="V35">
+        <v>12.1304609105468</v>
+      </c>
+      <c r="W35">
+        <v>0.8</v>
+      </c>
+      <c r="X35">
+        <v>69.320733904838505</v>
+      </c>
+      <c r="Y35">
+        <v>8.7967847491925095</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>61.350191414356203</v>
+      </c>
+      <c r="AB35">
+        <v>8.3599429234407108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" ref="B36" si="193">(E36+H36)/2</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C36" s="10">
+        <f t="shared" ref="C36" si="194">(F36+I36)/2</f>
+        <v>23.520346601804036</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" ref="D36" si="195">(G36+J36)/2</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="196">(K36+N36+Q36)/3</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="197">(L36+O36+R36)/3</f>
+        <v>24.184116641680333</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36" si="198">(M36+P36+S36)/3</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36" si="199">(T36+W36+Z36)/3</f>
+        <v>0.6</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36" si="200">(U36+X36+AA36)/3</f>
+        <v>22.856576561927735</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="201">(V36+Y36+AB36)/3</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.6</v>
+      </c>
+      <c r="L36">
+        <v>24.2293747663497</v>
+      </c>
+      <c r="N36">
+        <v>0.6</v>
+      </c>
+      <c r="O36">
+        <v>24.328465700149501</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>23.994509458541799</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>23.648484289646099</v>
+      </c>
+      <c r="W36">
+        <v>0.6</v>
+      </c>
+      <c r="X36">
+        <v>23.2064189910888</v>
+      </c>
+      <c r="Z36">
+        <v>0.2</v>
+      </c>
+      <c r="AA36">
+        <v>21.714826405048299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="8">
+        <f>(E37+H37)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <f>(F37+I37)/2</f>
+        <v>11.715392659107783</v>
+      </c>
+      <c r="D37" s="10">
+        <f>(G37+J37)/2</f>
+        <v>14.0686979228703</v>
+      </c>
+      <c r="E37">
+        <f>(K37+N37+Q37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>(L37+O37+R37)/3</f>
+        <v>10.635205050309432</v>
+      </c>
+      <c r="G37">
+        <f>(M37+P37+S37)/3</f>
+        <v>13.147941575576134</v>
+      </c>
+      <c r="H37">
+        <f>(T37+W37+Z37)/3</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>(U37+X37+AA37)/3</f>
+        <v>12.795580267906134</v>
+      </c>
+      <c r="J37">
+        <f>(V37+Y37+AB37)/3</f>
+        <v>14.989454270164467</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>10.8049145340919</v>
+      </c>
+      <c r="M37">
+        <v>12.9379257123427</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>10.7033601999282</v>
+      </c>
+      <c r="P37">
+        <v>12.9025388305372</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>10.3973404169082</v>
+      </c>
+      <c r="S37">
+        <v>13.603360183848499</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>12.884087264537801</v>
+      </c>
+      <c r="V37">
+        <v>15.2873376171744</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>12.8638320565223</v>
+      </c>
+      <c r="Y37">
+        <v>16.2272735151803</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>12.638821482658299</v>
+      </c>
+      <c r="AB37">
+        <v>13.453751678138699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="8">
+        <f>(E38+H38)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="10">
+        <f>(F38+I38)/2</f>
+        <v>20.738277167081783</v>
+      </c>
+      <c r="D38" s="10">
+        <f>(G38+J38)/2</f>
+        <v>4.2791529751738704</v>
+      </c>
+      <c r="E38">
+        <f>(K38+N38+Q38)/3</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F38">
+        <f>(L38+O38+R38)/3</f>
+        <v>20.747159083684235</v>
+      </c>
+      <c r="G38">
+        <f>(M38+P38+S38)/3</f>
+        <v>4.388649361066423</v>
+      </c>
+      <c r="H38">
+        <f>(T38+W38+Z38)/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I38">
+        <f>(U38+X38+AA38)/3</f>
+        <v>20.729395250479332</v>
+      </c>
+      <c r="J38">
+        <f>(V38+Y38+AB38)/3</f>
+        <v>4.1696565892813169</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>20.7535068392753</v>
+      </c>
+      <c r="M38">
+        <v>4.4899037884031801</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>20.789456129074001</v>
+      </c>
+      <c r="P38">
+        <v>4.3516924932575902</v>
+      </c>
+      <c r="Q38">
+        <v>0.2</v>
+      </c>
+      <c r="R38">
+        <v>20.6985142827034</v>
+      </c>
+      <c r="S38">
+        <v>4.3243518015384996</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>20.773519992828302</v>
+      </c>
+      <c r="V38">
+        <v>4.1328941330161202</v>
+      </c>
+      <c r="W38">
+        <v>0.4</v>
+      </c>
+      <c r="X38">
+        <v>20.743554770946499</v>
+      </c>
+      <c r="Y38">
+        <v>4.4330327742778399</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>20.671110987663202</v>
+      </c>
+      <c r="AB38">
+        <v>3.9430428605499901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="8">
+        <f>(E39+H39)/2</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C39" s="10">
+        <f>(F39+I39)/2</f>
+        <v>14.65628128250435</v>
+      </c>
+      <c r="D39" s="10">
+        <f>(G39+J39)/2</f>
+        <v>4.719718012564238</v>
+      </c>
+      <c r="E39">
+        <f>(K39+N39+Q39)/3</f>
+        <v>0.6</v>
+      </c>
+      <c r="F39">
+        <f>(L39+O39+R39)/3</f>
+        <v>14.746037244796701</v>
+      </c>
+      <c r="G39">
+        <f>(M39+P39+S39)/3</f>
+        <v>4.6322390950983898</v>
+      </c>
+      <c r="H39">
+        <f>(T39+W39+Z39)/3</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="I39">
+        <f>(U39+X39+AA39)/3</f>
+        <v>14.566525320212</v>
+      </c>
+      <c r="J39">
+        <f>(V39+Y39+AB39)/3</f>
+        <v>4.807196930030087</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>14.715807616710601</v>
+      </c>
+      <c r="M39">
+        <v>4.2415576416901901</v>
+      </c>
+      <c r="N39">
+        <v>0.6</v>
+      </c>
+      <c r="O39">
+        <v>14.864973425865101</v>
+      </c>
+      <c r="P39">
+        <v>5.4109960153459697</v>
+      </c>
+      <c r="Q39">
+        <v>0.2</v>
+      </c>
+      <c r="R39">
+        <v>14.6573306918144</v>
+      </c>
+      <c r="S39">
+        <v>4.2441636282590096</v>
+      </c>
+      <c r="T39">
+        <v>0.6</v>
+      </c>
+      <c r="U39">
+        <v>14.6174980998039</v>
+      </c>
+      <c r="V39">
+        <v>4.0664670486434504</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>14.5401073098182</v>
+      </c>
+      <c r="Y39">
+        <v>5.4601281647918398</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>14.5419705510139</v>
+      </c>
+      <c r="AB39">
+        <v>4.8949955766549698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H32:J32"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D26:D1048576 D1:D17">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="D1:D17 D32 D40:D1048576">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3040,8 +4336,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C1048576 C1:C17">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="C1:C17 C32 C40:C1048576">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3052,8 +4348,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B1048576 B1:B17">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="B1:B17 B32 B40:B1048576">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3064,8 +4360,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C1048576">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="C40:C1048576 C32">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3076,8 +4372,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D1048576">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="D40:D1048576 D32">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3088,8 +4384,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B1048576">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="B40:B1048576 B32">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3100,8 +4396,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C1048576 C1:C21">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="C1:C20 C32 C37:C1048576">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3112,8 +4408,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D1048576 D1:D21">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="D1:D20 D32 D37:D1048576">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3124,8 +4420,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="D18:D20 D37:D39">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3136,8 +4432,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="C18:C20 C37:C39">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3148,8 +4444,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="B18:B20 B37:B39">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3160,8 +4456,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="D21:D29">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C29">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3172,8 +4480,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B21:B29">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3184,7 +4492,139 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
+  <conditionalFormatting sqref="D21:D29">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B36">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3196,8 +4636,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3208,54 +4648,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D21">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C21">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B21">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
